--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -62,7 +62,34 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:13 AM</t>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:7</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>Monday, 4 August, 2025 9:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +751,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>51.479999999999997</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>187.47999999999999</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +862,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:36 AM</t>
+    <t>Monday, 4 August, 2025 9:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -89,7 +89,19 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:37 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Monday, 4 August, 2025 9:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -817,38 +829,71 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>187.47999999999999</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>27</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>202.47999999999999</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +917,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -101,7 +101,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:55 AM</t>
+    <t>Monday, 4 August, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -62,21 +62,30 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
     <t>70.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -89,19 +98,28 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:03 AM</t>
+    <t>Monday, 4 August, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -808,7 +826,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -818,14 +836,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -834,66 +852,132 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>202.47999999999999</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
         <v>30</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>30</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>223.68000000000001</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +1006,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -119,7 +119,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:05 AM</t>
+    <t>Monday, 4 August, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -119,7 +119,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:16 AM</t>
+    <t>Monday, 4 August, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -110,6 +125,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>شامبو جونسون 200مللى</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -119,7 +143,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:22 AM</t>
+    <t>Monday, 4 August, 2025 10:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -826,7 +850,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -836,11 +860,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>18</v>
@@ -852,14 +876,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -892,21 +916,21 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -918,66 +942,165 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>223.68000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>36</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c t="s" r="Q13" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>35</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>39</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>35</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>42</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>319.68000000000001</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>44</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>45</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>46</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1139,25 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -113,16 +125,31 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8447:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t>شامبو جونسون 200مللى</t>
@@ -143,7 +170,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:24 AM</t>
+    <t>Monday, 4 August, 2025 10:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -916,7 +943,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -926,11 +953,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -942,14 +969,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -959,11 +986,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -982,13 +1009,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1015,21 +1042,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1041,7 +1068,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1054,53 +1081,152 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>319.68000000000001</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>44</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>43</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>45</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>46</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>43</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>48</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>43</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>51</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>384.18000000000001</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>53</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>54</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>55</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1154,10 +1280,25 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -95,7 +95,19 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>70.0000</t>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
   </si>
   <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
@@ -170,7 +182,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:30 AM</t>
+    <t>Monday, 4 August, 2025 10:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -910,7 +922,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -927,7 +939,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -936,14 +948,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -976,7 +988,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -986,11 +998,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1002,14 +1014,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1019,11 +1031,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1075,21 +1087,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1101,7 +1113,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1114,15 +1126,15 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1134,28 +1146,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1167,66 +1179,99 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>384.18000000000001</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>53</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>54</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>47</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>55</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>520.17999999999995</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>57</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>58</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>59</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1295,10 +1340,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -182,7 +182,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:31 AM</t>
+    <t>Monday, 4 August, 2025 10:38 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -122,9 +131,36 @@
     <t>59.5000</t>
   </si>
   <si>
+    <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
+    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>57.1200</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -152,9 +188,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -182,7 +215,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:38 AM</t>
+    <t>Monday, 4 August, 2025 10:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,7 +1021,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -998,11 +1031,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1014,14 +1047,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1031,11 +1064,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1047,14 +1080,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1064,11 +1097,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1080,14 +1113,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1097,11 +1130,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1113,14 +1146,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1130,14 +1163,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1146,28 +1179,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1179,28 +1212,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1212,7 +1245,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1229,49 +1262,148 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>520.17999999999995</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>57</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>58</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>59</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>47</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>47</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>47</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>66</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>744.29999999999995</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>68</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>69</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>70</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1345,10 +1477,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:44 AM</t>
+    <t>Monday, 4 August, 2025 10:45 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -131,12 +131,24 @@
     <t>59.5000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -173,6 +185,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -188,6 +209,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -215,7 +239,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:45 AM</t>
+    <t>Monday, 4 August, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1104,7 +1128,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1113,14 +1137,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1130,11 +1154,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1146,31 +1170,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1179,20 +1203,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1203,7 +1227,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1252,24 +1276,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1278,28 +1302,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1311,20 +1335,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1332,10 +1356,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1344,7 +1368,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1357,53 +1381,119 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>744.29999999999995</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>68</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>69</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>70</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>51</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>51</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>807.13</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>76</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>77</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>78</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1492,10 +1582,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>23.0000</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
   </si>
   <si>
     <t>DIMRA 20 F.C.TAB.</t>
@@ -996,7 +1005,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1005,14 +1014,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1022,14 +1031,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1078,7 +1087,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1088,11 +1097,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1104,14 +1113,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1121,14 +1130,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1137,7 +1146,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1154,14 +1163,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1177,7 +1186,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1187,11 +1196,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1203,31 +1212,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1236,31 +1245,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1293,7 +1302,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1309,7 +1318,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,14 +1328,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1335,31 +1344,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1368,7 +1377,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1381,18 +1390,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1408,13 +1417,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1441,13 +1450,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1462,38 +1471,71 @@
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>807.13</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>76</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>54</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>77</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>896.13</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>80</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>81</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1592,10 +1634,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -149,12 +161,6 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
   </si>
   <si>
@@ -248,7 +254,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:46 AM</t>
+    <t>Monday, 4 August, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -955,7 +961,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -965,14 +971,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -988,7 +994,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -998,14 +1004,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1014,7 +1020,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1031,14 +1037,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1054,7 +1060,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1071,7 +1077,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1080,14 +1086,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,14 +1103,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,14 +1119,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1137,7 +1143,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1170,7 +1176,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1179,14 +1185,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1200,7 +1206,7 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1212,7 +1218,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1229,14 +1235,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,31 +1251,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,31 +1284,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1311,14 +1317,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,11 +1334,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1344,14 +1350,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,14 +1367,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,31 +1383,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1423,15 +1429,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1443,31 +1449,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1476,66 +1482,99 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>78</v>
       </c>
-      <c t="s" r="Q25" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>896.13</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>56</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>79</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>940.13</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
         <v>81</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>82</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>83</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1639,10 +1678,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -143,7 +152,7 @@
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>59.50</t>
@@ -212,7 +221,7 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8447:0</t>
+    <t>8448:0</t>
   </si>
   <si>
     <t>2.00</t>
@@ -254,7 +263,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:48 AM</t>
+    <t>Monday, 4 August, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -961,7 +970,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -978,7 +987,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -987,14 +996,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1004,14 +1013,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1020,14 +1029,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1077,7 +1086,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1086,14 +1095,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1103,14 +1112,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1159,7 +1168,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1169,11 +1178,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1185,14 +1194,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1202,14 +1211,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1225,7 +1234,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1235,14 +1244,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1258,7 +1267,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1268,11 +1277,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1284,31 +1293,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1317,31 +1326,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1350,14 +1359,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1374,7 +1383,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1390,7 +1399,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1400,14 +1409,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1416,31 +1425,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1449,7 +1458,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1462,18 +1471,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1489,13 +1498,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1522,13 +1531,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1543,38 +1552,71 @@
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>940.13</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>81</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>59</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>82</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>83</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>980.13</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>84</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>85</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>86</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1683,10 +1725,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMARYL 2 MG 30 TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>44.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>19.2000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -119,6 +128,18 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -128,9 +149,6 @@
     <t>105.0000</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -263,7 +281,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:59 AM</t>
+    <t>Monday, 4 August, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -970,7 +988,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -980,14 +998,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -996,14 +1014,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1013,14 +1031,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1036,7 +1054,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1046,14 +1064,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1062,14 +1080,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1086,7 +1104,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1102,7 +1120,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1119,7 +1137,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1128,14 +1146,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1152,7 +1170,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1168,7 +1186,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1185,7 +1203,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1201,7 +1219,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,14 +1229,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1227,14 +1245,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1244,14 +1262,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1260,14 +1278,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1284,7 +1302,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1300,7 +1318,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1328,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,20 +1344,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1350,7 +1368,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1366,7 +1384,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1376,14 +1394,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1392,31 +1410,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1425,14 +1443,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1442,14 +1460,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1458,31 +1476,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1498,24 +1516,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1524,31 +1542,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1564,13 +1582,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1581,42 +1599,108 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>980.13</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>84</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>65</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>85</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>65</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>88</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1037.9200000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>90</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>91</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>92</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1730,10 +1814,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -47,21 +47,21 @@
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMARYL 2 MG 30 TABS</t>
   </si>
   <si>
@@ -281,7 +281,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 11:07 AM</t>
+    <t>Monday, 4 August, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1005,7 +1005,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1038,7 +1038,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1054,7 +1054,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1071,7 +1071,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1104,7 +1104,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1137,7 +1137,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,7 +1170,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1219,7 +1219,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1236,7 +1236,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1252,7 +1252,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1269,7 +1269,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1302,7 +1302,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1368,7 +1368,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1384,7 +1384,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1401,7 +1401,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1467,7 +1467,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,7 +1500,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1533,7 +1533,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1599,7 +1599,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1615,7 +1615,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1632,7 +1632,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,12 +1665,12 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
       <c r="P30" s="13">
-        <v>1037.9200000000001</v>
+        <v>1074.9200000000001</v>
       </c>
       <c r="Q30" s="13"/>
     </row>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -200,6 +209,27 @@
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
   </si>
   <si>
@@ -251,7 +281,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -281,7 +311,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 11:11 AM</t>
+    <t>Monday, 4 August, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1203,7 +1233,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1219,7 +1249,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1236,7 +1266,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1285,7 +1315,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1295,11 +1325,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1311,14 +1341,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1328,14 +1358,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1351,7 +1381,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1361,14 +1391,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1384,7 +1414,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1394,11 +1424,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1410,31 +1440,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1460,14 +1490,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1476,14 +1506,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1493,11 +1523,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1509,31 +1539,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1542,31 +1572,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,31 +1605,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,28 +1638,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1641,7 +1671,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1654,53 +1684,152 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1074.9200000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>90</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>91</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>75</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>92</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>16</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>75</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>95</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>97</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>18</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>75</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>98</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1224.9449999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>100</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>101</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>102</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1824,10 +1953,25 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -197,6 +197,18 @@
     <t>22.00</t>
   </si>
   <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
   </si>
   <si>
@@ -206,6 +218,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -236,9 +257,6 @@
     <t>0:10</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>168.00</t>
   </si>
   <si>
@@ -257,6 +275,24 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>SOOTONIC HAIR LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
+  </si>
+  <si>
+    <t>149.50</t>
+  </si>
+  <si>
+    <t>149.5000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -311,7 +347,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 11:16 AM</t>
+    <t>Monday, 4 August, 2025 11:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1414,21 +1450,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1440,14 +1476,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1457,11 +1493,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1473,14 +1509,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1490,14 +1526,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1506,14 +1542,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1523,14 +1559,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1552,18 +1588,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,14 +1608,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1589,14 +1625,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1605,31 +1641,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1638,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1655,11 +1691,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1671,7 +1707,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1684,18 +1720,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1717,7 +1753,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1744,13 +1780,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1761,7 +1797,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1777,59 +1813,191 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>101</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>18</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>63</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>99</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1224.9449999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>100</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>101</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>63</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>104</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>16</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>63</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>18</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>63</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>110</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1754.4449999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>112</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>113</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>114</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1968,10 +2136,30 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -314,6 +314,30 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -347,7 +371,25 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 11:31 AM</t>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال اطفال 50 ملل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>Monday, 4 August, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1888,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1856,14 +1898,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1872,14 +1914,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1889,11 +1931,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1905,14 +1947,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1922,14 +1964,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1938,7 +1980,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1955,49 +1997,181 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1754.4449999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>112</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>113</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>114</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>16</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>63</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>115</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>63</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>118</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>60</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>63</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>121</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>123</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>23</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>63</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>124</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1891.4449999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>126</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>127</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>128</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2156,10 +2330,30 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -305,13 +314,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8448:0</t>
+    <t>8447:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -389,7 +398,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 11:39 AM</t>
+    <t>Monday, 4 August, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1657,7 +1666,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1674,7 +1683,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1690,24 +1699,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1716,31 +1725,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1749,14 +1758,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1822,7 +1831,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1839,7 +1848,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1855,7 +1864,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1881,31 +1890,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1931,11 +1940,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1980,7 +1989,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2020,7 +2029,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2053,7 +2062,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2086,7 +2095,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2119,7 +2128,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2140,38 +2149,71 @@
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1891.4449999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>126</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>23</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>63</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>127</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1932.4449999999999</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>129</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>130</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>131</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2350,10 +2392,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -398,7 +398,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 11:40 AM</t>
+    <t>Monday, 4 August, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -398,7 +407,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 12:03 PM</t>
+    <t>Monday, 4 August, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1105,13 +1114,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1138,7 +1147,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1148,11 +1157,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1164,14 +1173,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1181,14 +1190,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1197,14 +1206,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1221,7 +1230,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1237,7 +1246,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1247,11 +1256,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1263,14 +1272,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1287,7 +1296,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1303,7 +1312,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1313,11 +1322,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1329,7 +1338,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1346,14 +1355,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1362,14 +1371,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1379,14 +1388,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1395,7 +1404,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1412,11 +1421,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1428,14 +1437,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1482,10 +1491,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1494,31 +1503,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1534,13 +1543,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1567,7 +1576,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1610,11 +1619,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1626,14 +1635,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1643,14 +1652,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1659,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1683,7 +1692,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1699,7 +1708,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1716,7 +1725,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1732,24 +1741,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1758,31 +1767,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1864,7 +1873,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1881,7 +1890,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1897,7 +1906,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1907,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,31 +1932,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1956,28 +1965,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1989,31 +1998,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2022,7 +2031,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2035,18 +2044,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2062,13 +2071,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2095,13 +2104,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2128,13 +2137,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2161,13 +2170,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2182,38 +2191,71 @@
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1932.4449999999999</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>129</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>27</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>23</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>130</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1962.9449999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>132</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>133</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>134</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2397,10 +2439,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
   </si>
   <si>
@@ -302,6 +311,12 @@
     <t>169.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
   </si>
   <si>
@@ -407,7 +422,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 12:04 PM</t>
+    <t>Monday, 4 August, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1444,7 +1459,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1461,7 +1476,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1477,7 +1492,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1487,11 +1502,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1503,14 +1518,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1520,14 +1535,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1543,24 +1558,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1576,13 +1591,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1609,7 +1624,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1652,11 +1667,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1668,14 +1683,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,14 +1700,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1725,7 +1740,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1741,7 +1756,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1758,7 +1773,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1774,24 +1789,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1800,31 +1815,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1906,7 +1921,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1916,11 +1931,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1949,14 +1964,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,31 +1980,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1998,31 +2013,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2031,14 +2046,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2048,14 +2063,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,14 +2079,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2104,7 +2119,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2114,14 +2129,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,7 +2145,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2147,11 +2162,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2163,14 +2178,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2180,11 +2195,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2213,49 +2228,115 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>131</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1962.9449999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>67</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>23</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>132</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>134</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>27</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>23</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>135</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2057.6849999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>137</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>138</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>139</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2444,10 +2525,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -326,6 +326,15 @@
     <t>149.5000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -371,6 +380,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>زيت شعر املا 90 مل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -404,25 +422,25 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>كريم فريند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>Monday, 4 August, 2025 12:09 PM</t>
+    <t>Monday, 4 August, 2025 12:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2004,7 +2022,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2020,7 +2038,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2030,14 +2048,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2046,31 +2064,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2079,14 +2097,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2096,11 +2114,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2112,14 +2130,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2129,14 +2147,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,14 +2163,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2162,11 +2180,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2178,14 +2196,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2195,14 +2213,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2251,7 +2269,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2284,7 +2302,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2305,38 +2323,137 @@
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2057.6849999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>137</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>138</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>23</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>139</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>141</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>67</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>23</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>139</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>27</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>23</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>124</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2173.6849999999999</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>143</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>144</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>145</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2535,10 +2652,25 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>59.5000</t>
+  </si>
+  <si>
+    <t>GALVUS MET 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>207.9000</t>
   </si>
   <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
@@ -1576,7 +1585,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1586,14 +1595,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1609,24 +1618,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1642,13 +1651,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1675,7 +1684,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1718,11 +1727,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1734,14 +1743,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1751,14 +1760,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1791,7 +1800,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1807,7 +1816,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1824,7 +1833,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1840,24 +1849,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1866,31 +1875,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1939,7 +1948,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1949,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2005,7 +2014,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2055,7 +2064,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2071,7 +2080,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2081,14 +2090,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2097,31 +2106,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2147,11 +2156,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2203,7 +2212,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2213,14 +2222,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,7 +2238,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2246,14 +2255,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2269,7 +2278,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2302,7 +2311,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2335,7 +2344,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2378,11 +2387,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2411,49 +2420,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2173.6849999999999</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>143</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>144</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>145</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>27</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>23</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>127</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2381.585</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>146</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>147</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>148</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2667,10 +2709,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>30.5000</t>
   </si>
   <si>
+    <t>BROMAGAR ORAL DROPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -305,12 +314,6 @@
     <t>2:7</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>SOOTONIC HAIR LOTION 120 ML</t>
   </si>
   <si>
@@ -449,7 +452,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 12:13 PM</t>
+    <t>Monday, 4 August, 2025 12:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1189,21 +1192,21 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1215,14 +1218,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1255,7 +1258,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1272,7 +1275,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1288,7 +1291,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1298,14 +1301,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1314,14 +1317,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1354,7 +1357,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1364,14 +1367,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1380,14 +1383,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1437,7 +1440,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1453,7 +1456,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1470,7 +1473,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1486,7 +1489,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1503,7 +1506,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1519,7 +1522,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1536,7 +1539,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1552,7 +1555,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,11 +1565,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1578,14 +1581,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1602,7 +1605,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1618,7 +1621,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,14 +1631,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1651,24 +1654,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1684,13 +1687,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1717,7 +1720,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1760,11 +1763,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1776,14 +1779,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1793,14 +1796,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1809,14 +1812,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1833,7 +1836,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1849,7 +1852,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1866,7 +1869,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1882,24 +1885,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1908,31 +1911,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1974,14 +1977,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,14 +1994,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,14 +2010,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2024,14 +2027,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2040,14 +2043,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2057,11 +2060,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2073,14 +2076,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2090,14 +2093,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,14 +2109,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2123,14 +2126,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,31 +2142,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,14 +2175,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,11 +2192,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2205,14 +2208,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2222,11 +2225,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2238,14 +2241,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2255,14 +2258,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,7 +2274,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2288,14 +2291,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2304,14 +2307,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2321,11 +2324,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2337,14 +2340,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2354,11 +2357,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,11 +2390,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2403,14 +2406,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2420,11 +2423,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2443,7 +2446,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2453,49 +2456,82 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>146</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>30</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>23</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>128</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2381.585</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>146</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2447.585</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>147</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
         <v>148</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>149</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2714,10 +2750,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -452,7 +452,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 12:32 PM</t>
+    <t>Monday, 4 August, 2025 12:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -170,6 +182,18 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -344,9 +368,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -413,7 +434,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>شامبو جونسون 200مللى</t>
@@ -452,7 +473,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 12:37 PM</t>
+    <t>Monday, 4 August, 2025 12:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,13 +1180,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1176,7 +1197,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1198,15 +1219,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1218,20 +1239,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1258,7 +1279,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1268,11 +1289,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1284,14 +1305,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1301,14 +1322,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1317,14 +1338,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1341,7 +1362,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1357,7 +1378,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1367,11 +1388,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1383,14 +1404,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1407,7 +1428,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1423,7 +1444,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1433,11 +1454,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1449,7 +1470,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1466,14 +1487,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1482,14 +1503,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1499,14 +1520,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1515,14 +1536,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1532,14 +1553,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1548,7 +1569,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1565,11 +1586,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1581,14 +1602,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1598,14 +1619,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1614,14 +1635,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1631,14 +1652,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1647,14 +1668,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1664,14 +1685,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1680,7 +1701,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1693,18 +1714,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1713,14 +1734,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1730,14 +1751,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1746,28 +1767,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1779,14 +1800,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1796,11 +1817,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1829,14 +1850,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1862,11 +1883,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1895,11 +1916,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1911,31 +1932,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1961,14 +1982,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1977,31 +1998,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2010,14 +2031,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2043,7 +2064,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2060,11 +2081,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2126,14 +2147,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2142,14 +2163,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2182,24 +2203,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2208,31 +2229,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2241,20 +2262,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2281,24 +2302,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2307,28 +2328,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2340,31 +2361,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2373,7 +2394,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2386,18 +2407,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2406,20 +2427,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2446,21 +2467,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2472,66 +2493,132 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2447.585</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>147</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>148</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>149</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>152</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>81</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>27</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>150</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>153</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>34</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>27</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>135</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2498.395</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>154</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>155</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>156</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2755,10 +2842,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 12:38 PM</t>
+    <t>Monday, 4 August, 2025 12:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 12:39 PM</t>
+    <t>Monday, 4 August, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>57.1200</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -410,9 +419,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>زيت شعر املا 90 مل</t>
   </si>
   <si>
@@ -473,7 +479,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 12:45 PM</t>
+    <t>Monday, 4 August, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2038,24 +2044,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2081,11 +2087,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2104,7 +2110,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2114,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,14 +2136,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2147,14 +2153,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2170,7 +2176,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2184,7 +2190,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2196,7 +2202,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2213,14 +2219,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2236,7 +2242,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2246,14 +2252,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,31 +2268,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2301,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,11 +2318,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2328,14 +2334,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2349,7 +2355,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2361,14 +2367,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,14 +2384,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2411,11 +2417,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>81</v>
@@ -2427,14 +2433,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2444,14 +2450,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2460,14 +2466,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2477,11 +2483,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2493,14 +2499,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2510,11 +2516,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2543,11 +2549,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2559,14 +2565,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2576,49 +2582,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2498.395</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>154</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>155</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>34</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>27</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>137</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2525.395</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>156</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>157</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>158</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2852,10 +2891,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 12:57 PM</t>
+    <t>Monday, 4 August, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -221,6 +221,21 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
   </si>
   <si>
@@ -380,10 +395,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -431,7 +449,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -479,7 +497,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 1:09 PM</t>
+    <t>Monday, 4 August, 2025 1:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1648,7 +1666,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1658,14 +1676,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1691,11 +1709,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1740,14 +1758,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1773,31 +1791,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1806,28 +1824,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,11 +1874,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1872,7 +1890,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1889,11 +1907,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1938,14 +1956,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1971,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2004,31 +2022,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2070,31 +2088,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2120,11 +2138,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,14 +2204,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,11 +2237,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2235,7 +2253,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2252,14 +2270,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2268,14 +2286,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2285,14 +2303,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2301,31 +2319,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2351,11 +2369,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2367,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,11 +2402,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2433,7 +2451,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2450,14 +2468,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2516,11 +2534,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2549,11 +2567,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2582,11 +2600,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2615,49 +2633,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2525.395</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>156</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>157</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>158</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>161</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>34</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>27</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>143</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2564.145</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>162</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>163</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>164</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2896,10 +2947,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 1:21 PM</t>
+    <t>Monday, 4 August, 2025 1:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -356,6 +356,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -497,7 +506,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 1:22 PM</t>
+    <t>Monday, 4 August, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2138,11 +2147,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2154,14 +2163,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,11 +2180,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2194,7 +2203,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,14 +2213,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2274,7 +2283,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2307,10 +2316,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,14 +2345,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2352,31 +2361,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2385,14 +2394,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2402,11 +2411,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2425,7 +2434,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2435,11 +2444,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2458,7 +2467,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2468,14 +2477,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,7 +2493,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2501,14 +2510,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2524,7 +2533,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2541,7 +2550,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2557,7 +2566,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2590,7 +2599,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2600,11 +2609,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2616,14 +2625,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2633,11 +2642,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2666,49 +2675,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2564.145</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>162</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>163</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>164</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>34</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>27</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>146</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2588.145</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>165</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>166</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>167</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2952,10 +2994,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -173,6 +173,12 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -365,6 +371,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -383,9 +398,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
   </si>
   <si>
@@ -506,7 +518,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 1:26 PM</t>
+    <t>Monday, 4 August, 2025 1:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1520,11 +1532,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1536,14 +1548,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1553,14 +1565,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1569,14 +1581,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1586,14 +1598,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1602,14 +1614,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1619,14 +1631,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1635,14 +1647,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1652,14 +1664,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1668,14 +1680,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1685,14 +1697,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1701,14 +1713,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1718,14 +1730,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1734,14 +1746,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1751,11 +1763,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1767,14 +1779,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1784,14 +1796,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1800,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1817,14 +1829,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1833,20 +1845,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1854,10 +1866,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1866,28 +1878,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1899,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1916,11 +1928,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1932,7 +1944,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1949,11 +1961,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1982,14 +1994,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2015,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2031,14 +2043,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2048,14 +2060,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2064,31 +2076,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2114,14 +2126,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2130,31 +2142,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2163,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2180,11 +2192,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2220,7 +2232,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2236,7 +2248,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2246,14 +2258,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2302,7 +2314,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2345,14 +2357,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2361,14 +2373,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2394,31 +2406,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2427,31 +2439,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2477,11 +2489,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2576,14 +2588,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2592,7 +2604,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2642,11 +2654,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2658,14 +2670,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2708,49 +2720,115 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2588.145</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>167</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>88</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>27</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>165</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>167</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>34</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>27</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>150</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2681.2049999999999</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>169</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>170</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>171</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2999,10 +3077,20 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>47.0250</t>
   </si>
   <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -209,6 +218,18 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -299,6 +320,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>IVABRAGIN 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>234.0000</t>
+  </si>
+  <si>
     <t>KERELLA LOTION 30 ML</t>
   </si>
   <si>
@@ -407,6 +437,24 @@
     <t>149.5000</t>
   </si>
   <si>
+    <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>550.0000</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -518,7 +566,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 1:55 PM</t>
+    <t>Monday, 4 August, 2025 1:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1588,24 +1636,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1614,14 +1662,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1638,7 +1686,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1654,7 +1702,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1671,7 +1719,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1687,7 +1735,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1697,14 +1745,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1713,14 +1761,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1737,7 +1785,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1746,14 +1794,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1763,14 +1811,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1779,14 +1827,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1796,14 +1844,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1819,7 +1867,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1836,7 +1884,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1866,10 +1914,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1878,7 +1926,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1891,18 +1939,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1911,14 +1959,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,14 +1976,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1944,28 +1992,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1977,14 +2025,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,11 +2042,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2010,31 +2058,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,14 +2091,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2060,11 +2108,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2076,14 +2124,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2093,14 +2141,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2122,7 +2170,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2133,7 +2181,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2149,13 +2197,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2166,7 +2214,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2182,7 +2230,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,14 +2240,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2215,24 +2263,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2241,31 +2289,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2274,14 +2322,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,11 +2339,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2307,14 +2355,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,11 +2372,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2340,14 +2388,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2357,11 +2405,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2373,14 +2421,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2390,11 +2438,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2406,14 +2454,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2423,14 +2471,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2439,14 +2487,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2463,7 +2511,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2479,21 +2527,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2505,28 +2553,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2538,28 +2586,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2571,31 +2619,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2611,24 +2659,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2637,14 +2685,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2654,11 +2702,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2670,14 +2718,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2687,11 +2735,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2703,14 +2751,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2720,11 +2768,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2736,14 +2784,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,14 +2801,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2769,14 +2817,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2786,49 +2834,214 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2681.2049999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>169</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>170</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>171</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>27</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>174</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>176</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>18</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>27</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>177</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>179</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>180</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>27</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>181</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>183</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>95</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>27</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>181</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>184</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>34</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>27</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>166</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3760.2049999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>185</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>186</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>187</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3087,10 +3300,35 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>18.8100</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -224,9 +239,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -398,9 +410,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -518,7 +527,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -566,7 +578,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 1:58 PM</t>
+    <t>Monday, 4 August, 2025 2:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1306,13 +1318,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1323,7 +1335,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1332,7 +1344,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1345,15 +1357,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1365,28 +1377,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1398,14 +1410,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1415,11 +1427,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1431,14 +1443,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1448,14 +1460,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1464,14 +1476,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1481,14 +1493,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1514,11 +1526,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1547,14 +1559,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1580,11 +1592,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1596,7 +1608,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1613,11 +1625,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1629,31 +1641,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1662,31 +1674,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1712,14 +1724,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1728,14 +1740,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1778,11 +1790,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1811,14 +1823,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1851,7 +1863,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1884,7 +1896,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1933,7 +1945,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1943,14 +1955,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1959,14 +1971,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1980,10 +1992,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1992,31 +2004,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2025,28 +2037,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2058,28 +2070,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2091,28 +2103,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2124,7 +2136,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2141,11 +2153,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2174,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2197,7 +2209,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2207,14 +2219,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2256,20 +2268,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2280,7 +2292,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2296,24 +2308,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2322,31 +2334,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2372,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2395,7 +2407,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2405,14 +2417,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2438,11 +2450,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2461,7 +2473,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2471,14 +2483,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2560,7 +2572,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2593,7 +2605,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2607,7 +2619,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2640,10 +2652,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2685,31 +2697,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2718,28 +2730,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2758,21 +2770,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2791,24 +2803,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2817,7 +2829,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2830,18 +2842,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>95</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2850,31 +2862,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2883,28 +2895,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2916,20 +2928,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2956,21 +2968,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2982,66 +2994,99 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3760.2049999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>185</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>186</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>187</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>188</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>39</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>32</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>169</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3790.2049999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>189</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>190</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>191</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3325,10 +3370,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -578,7 +578,16 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 2:13 PM</t>
+    <t xml:space="preserve">مناديل جيب مبلله </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>Monday, 4 August, 2025 2:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3055,38 +3064,71 @@
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3790.2049999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>189</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>92</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>32</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>190</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3802.2049999999999</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>192</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>193</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>194</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3375,10 +3417,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 2:26 PM</t>
+    <t>Monday, 4 August, 2025 2:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 2:29 PM</t>
+    <t>Monday, 4 August, 2025 3:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -116,6 +116,12 @@
     <t>30.5000</t>
   </si>
   <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>BROMAGAR ORAL DROPS</t>
   </si>
   <si>
@@ -188,6 +194,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -239,9 +254,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -251,6 +263,15 @@
     <t>101.0000</t>
   </si>
   <si>
+    <t>DUCARBOFEL 30 CAPS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
@@ -419,6 +440,18 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -530,9 +563,6 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -587,7 +617,7 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 3:40 PM</t>
+    <t>Monday, 4 August, 2025 4:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1393,21 +1423,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1419,28 +1449,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1452,14 +1482,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1469,11 +1499,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1485,14 +1515,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1502,14 +1532,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1518,14 +1548,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1535,14 +1565,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1551,14 +1581,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1568,11 +1598,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1584,14 +1614,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1601,14 +1631,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1617,14 +1647,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1634,7 +1664,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1657,7 +1687,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1690,24 +1720,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1716,14 +1746,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1733,14 +1763,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1749,31 +1779,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1782,14 +1812,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1799,14 +1829,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1832,14 +1862,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1848,14 +1878,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1865,14 +1895,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1881,14 +1911,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1898,14 +1928,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1914,14 +1944,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1931,11 +1961,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1947,14 +1977,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1964,14 +1994,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1980,14 +2010,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1997,14 +2027,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2013,14 +2043,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2030,14 +2060,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2046,28 +2076,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2079,14 +2109,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2096,14 +2126,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2112,31 +2142,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2145,28 +2175,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2178,14 +2208,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,11 +2225,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2218,24 +2248,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2244,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,11 +2291,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2277,14 +2307,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2324,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2310,31 +2340,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,31 +2373,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,14 +2406,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2393,14 +2423,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,31 +2439,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2442,31 +2472,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2482,7 +2512,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,11 +2522,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2508,14 +2538,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,11 +2555,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2541,14 +2571,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,11 +2621,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2607,14 +2637,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2624,11 +2654,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2640,14 +2670,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2657,14 +2687,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2680,7 +2710,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2720,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2706,14 +2736,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,14 +2753,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2739,28 +2769,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2772,28 +2802,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2805,31 +2835,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,31 +2868,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,14 +2901,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2888,14 +2918,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,14 +2934,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2925,7 +2955,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2937,14 +2967,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2954,11 +2984,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2970,14 +3000,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,14 +3017,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3003,14 +3033,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3027,7 +3057,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3036,14 +3066,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3053,11 +3083,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3069,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3086,49 +3116,181 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3802.2049999999999</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>192</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>193</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>194</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>32</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>195</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>197</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>106</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>32</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>195</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>198</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>41</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>32</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>180</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>199</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>99</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>32</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>200</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>4000.4450000000002</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>202</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>203</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>204</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3422,10 +3584,30 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
   </si>
   <si>
@@ -185,9 +197,6 @@
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -287,9 +296,6 @@
     <t>5:1</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>19.9200</t>
   </si>
   <si>
@@ -614,10 +620,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>Monday, 4 August, 2025 4:53 PM</t>
+    <t>Monday, 4 August, 2025 4:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1624,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1631,14 +1634,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1647,14 +1650,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1671,7 +1674,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1687,7 +1690,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1720,7 +1723,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1730,11 +1733,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1746,7 +1749,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1763,7 +1766,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1786,13 +1789,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1803,7 +1806,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1819,24 +1822,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1845,14 +1848,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1869,7 +1872,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1885,7 +1888,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1895,14 +1898,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1911,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1928,11 +1931,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1951,7 +1954,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1984,7 +1987,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2001,7 +2004,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2017,7 +2020,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2027,14 +2030,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2043,14 +2046,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2060,14 +2063,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2076,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2093,11 +2096,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2109,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2126,14 +2129,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2142,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2159,14 +2162,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2175,20 +2178,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2196,10 +2199,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2208,28 +2211,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2241,28 +2244,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2274,28 +2277,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2307,7 +2310,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2324,11 +2327,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2340,14 +2343,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2357,14 +2360,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2373,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2390,14 +2393,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2406,14 +2409,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2423,14 +2426,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2439,31 +2442,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2472,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,14 +2492,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2505,31 +2508,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2545,7 +2548,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2571,14 +2574,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,11 +2591,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2604,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2621,14 +2624,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2644,7 +2647,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,11 +2657,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2670,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2687,14 +2690,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2703,14 +2706,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,14 +2723,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2736,7 +2739,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2753,11 +2756,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2769,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2786,11 +2789,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2802,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,11 +2822,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2842,7 +2845,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,14 +2855,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2868,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,14 +2888,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2901,31 +2904,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2934,14 +2937,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,11 +2954,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2967,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2988,7 +2991,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3000,14 +3003,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3017,14 +3020,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3050,14 +3053,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>106</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3066,14 +3069,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,14 +3086,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3099,14 +3102,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,11 +3119,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3132,14 +3135,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,11 +3152,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3165,14 +3168,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,11 +3185,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3198,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,11 +3218,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3231,14 +3234,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,49 +3251,82 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>201</v>
       </c>
-      <c t="s" r="Q67" s="12">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>101</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>32</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>202</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>41</v>
       </c>
     </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>4000.4450000000002</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>202</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>4012.4450000000002</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
         <v>203</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
         <v>204</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>205</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3604,10 +3640,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>12.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
   </si>
   <si>
     <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
@@ -1657,7 +1669,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,14 +1695,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,14 +1712,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1716,14 +1728,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,11 +1745,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,11 +1778,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1782,7 +1794,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1799,11 +1811,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1815,31 +1827,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,20 +1860,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1872,7 +1884,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1888,7 +1900,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,14 +1910,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,14 +1926,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,14 +1943,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1947,14 +1959,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,11 +1976,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1997,11 +2009,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2013,14 +2025,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,14 +2042,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2086,7 +2098,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,14 +2108,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2152,7 +2164,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2174,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2199,10 +2211,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,31 +2223,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,28 +2256,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2277,28 +2289,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2310,28 +2322,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2343,7 +2355,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2360,11 +2372,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2416,7 +2428,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2475,20 +2487,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2499,7 +2511,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2515,7 +2527,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,31 +2553,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2591,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,7 +2784,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2789,11 +2801,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,11 +2834,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,11 +2867,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2928,7 +2940,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2950,7 +2962,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2961,7 +2973,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,7 +3003,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3020,11 +3032,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,7 +3081,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3152,11 +3164,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3208,7 +3220,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3218,11 +3230,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3251,11 +3263,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3267,14 +3279,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3284,49 +3296,82 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>205</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>105</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>32</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>206</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>57</v>
       </c>
-      <c t="s" r="Q68" s="12">
+      <c t="s" r="Q69" s="12">
         <v>41</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>4012.4450000000002</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>203</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>204</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>205</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>4030.4450000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>207</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>208</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>209</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3645,10 +3690,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 4:54 PM</t>
+    <t>Monday, 4 August, 2025 5:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>63.8400</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -362,6 +362,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
   </si>
   <si>
@@ -434,6 +443,12 @@
     <t>57.1200</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -497,6 +512,15 @@
     <t>149.5000</t>
   </si>
   <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -632,7 +656,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 5:08 PM</t>
+    <t>Monday, 4 August, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1966,7 +1990,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1980,10 +2004,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2296,7 +2320,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2313,7 +2337,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2329,13 +2353,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2362,13 +2386,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2405,11 +2429,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2438,14 +2462,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2454,14 +2478,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2478,7 +2502,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2494,7 +2518,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2511,7 +2535,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2527,24 +2551,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2577,7 +2601,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2593,7 +2617,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2603,14 +2627,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2626,13 +2650,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2669,14 +2693,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,14 +2726,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2718,14 +2742,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2742,7 +2766,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2758,7 +2782,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,14 +2792,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,7 +2808,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2801,11 +2825,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2817,14 +2841,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2834,14 +2858,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,14 +2874,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,11 +2891,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2883,14 +2907,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2900,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2923,7 +2947,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2933,14 +2957,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2949,14 +2973,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,14 +2990,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2982,28 +3006,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3015,31 +3039,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,31 +3072,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3081,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3098,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3121,7 +3145,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,14 +3155,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3154,7 +3178,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3197,14 +3221,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3246,14 +3270,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3263,11 +3287,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3286,7 +3310,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3296,11 +3320,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3312,14 +3336,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3329,49 +3353,148 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>211</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>112</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>32</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>209</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>212</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>41</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>32</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>194</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>213</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>105</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>32</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>214</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>57</v>
       </c>
-      <c t="s" r="Q69" s="12">
+      <c t="s" r="Q72" s="12">
         <v>41</v>
       </c>
     </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>4030.4450000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>207</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>208</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>209</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>4347.7849999999999</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>215</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>216</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>217</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3695,10 +3818,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -656,7 +656,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 5:11 PM</t>
+    <t>Monday, 4 August, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -347,12 +347,12 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>22.00</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
@@ -647,6 +647,12 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t xml:space="preserve">مسواك اسنان </t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
@@ -656,7 +662,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 5:19 PM</t>
+    <t>Monday, 4 August, 2025 6:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2254,7 +2260,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2264,14 +2270,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -3261,7 +3267,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3376,7 +3382,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3409,7 +3415,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3419,11 +3425,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3442,7 +3448,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3452,49 +3458,115 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>214</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>41</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>32</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>194</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>215</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>105</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>32</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>216</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>57</v>
       </c>
-      <c t="s" r="Q72" s="12">
+      <c t="s" r="Q74" s="12">
         <v>41</v>
       </c>
     </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4347.7849999999999</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>215</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>216</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>4404.7849999999999</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>217</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>218</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>219</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3833,10 +3905,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -662,7 +662,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 6:03 PM</t>
+    <t>Monday, 4 August, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -92,378 +92,381 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>BROMAGAR ORAL DROPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>48.00</t>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>DUCARBOFEL 30 CAPS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GALVUS MET 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>207.9000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>IVABRAGIN 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>234.0000</t>
+  </si>
+  <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>57.1200</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>30.5000</t>
-  </si>
-  <si>
-    <t>BRAN 60 CAPS. (MEPACO)</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>BROMAGAR ORAL DROPS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CANDALKAN 4MG 14 TABLETS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>DUCARBOFEL 30 CAPS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GALVUS MET 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>315.00</t>
-  </si>
-  <si>
-    <t>207.9000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>IVABRAGIN 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>234.00</t>
-  </si>
-  <si>
-    <t>234.0000</t>
-  </si>
-  <si>
-    <t>KERELLA LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>57.1200</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -602,7 +605,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -662,7 +668,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 6:33 PM</t>
+    <t>Monday, 4 August, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1930,7 +1936,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1940,11 +1946,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1956,7 +1962,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1973,11 +1979,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>55</v>
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2623,7 +2629,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2703,7 +2709,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2715,7 +2721,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2732,11 +2738,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2765,11 +2771,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2814,7 +2820,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2831,11 +2837,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2880,7 +2886,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2897,11 +2903,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2913,7 +2919,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2930,11 +2936,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2946,7 +2952,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2963,11 +2969,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2979,7 +2985,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2996,11 +3002,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3012,7 +3018,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3029,11 +3035,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3045,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3062,11 +3068,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3078,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3095,11 +3101,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>41</v>
@@ -3111,14 +3117,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3128,11 +3134,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3144,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3161,7 +3167,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3177,7 +3183,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3194,11 +3200,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3210,7 +3216,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3227,14 +3233,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3243,7 +3249,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3260,11 +3266,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>113</v>
@@ -3276,7 +3282,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3293,11 +3299,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3309,7 +3315,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3326,11 +3332,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3359,11 +3365,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3375,7 +3381,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3392,11 +3398,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3408,7 +3414,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3425,11 +3431,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3458,11 +3464,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3474,7 +3480,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3491,11 +3497,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3507,7 +3513,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3524,7 +3530,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3536,13 +3542,13 @@
     </row>
     <row r="75" ht="24.75" customHeight="1">
       <c r="P75" s="13">
-        <v>4404.7849999999999</v>
+        <v>4414.4650000000001</v>
       </c>
       <c r="Q75" s="13"/>
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c t="s" r="A76" s="14">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -3550,13 +3556,13 @@
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c t="s" r="G76" s="15">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="16"/>
       <c t="s" r="K76" s="17">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CETAFEN-N 120ML SUSP.</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -224,6 +233,15 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -392,12 +410,6 @@
     <t>KERELLA LOTION 30 ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -410,9 +422,6 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -506,6 +515,15 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>SUPOLACK HAIR SHAMPOO 200 ML</t>
   </si>
   <si>
@@ -623,9 +641,6 @@
     <t>شامبو جونسون 200مللى</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -653,6 +668,15 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
@@ -668,7 +692,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 6:38 PM</t>
+    <t>Monday, 4 August, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1639,7 +1663,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1649,11 +1673,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1665,14 +1689,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1682,14 +1706,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1698,14 +1722,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1715,11 +1739,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1731,14 +1755,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1755,7 +1779,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1771,7 +1795,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1788,7 +1812,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1804,7 +1828,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1837,7 +1861,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,11 +1871,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1863,14 +1887,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1880,11 +1904,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1896,31 +1920,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1936,7 +1960,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1953,7 +1977,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1969,13 +1993,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1986,7 +2010,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2002,7 +2026,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2012,14 +2036,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2035,7 +2059,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2052,7 +2076,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2068,7 +2092,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2078,14 +2102,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2101,7 +2125,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2118,7 +2142,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2134,7 +2158,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2144,14 +2168,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2160,14 +2184,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2177,14 +2201,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2193,14 +2217,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2234,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2250,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,14 +2267,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2259,14 +2283,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2280,10 +2304,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2305,7 +2329,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2316,7 +2340,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2332,7 +2356,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2346,10 +2370,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2365,13 +2389,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2398,13 +2422,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2415,7 +2439,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2431,7 +2455,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2464,21 +2488,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2490,14 +2514,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,14 +2531,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2523,14 +2547,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,11 +2564,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2556,14 +2580,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,11 +2597,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2589,31 +2613,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2622,14 +2646,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,11 +2663,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2655,14 +2679,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,14 +2696,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2712,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,14 +2729,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2721,28 +2745,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2754,14 +2778,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,14 +2795,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2787,14 +2811,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2828,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,14 +2844,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,14 +2861,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2853,14 +2877,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2894,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,7 +2910,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2903,11 +2927,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2919,14 +2943,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,14 +2960,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,7 +2976,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2969,11 +2993,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2985,14 +3009,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,11 +3026,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3018,14 +3042,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,11 +3059,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3051,14 +3075,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,14 +3092,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3084,14 +3108,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3125,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,28 +3141,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3150,31 +3174,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,31 +3207,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,14 +3240,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,14 +3257,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,14 +3273,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3266,14 +3290,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,14 +3306,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3299,11 +3323,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3315,7 +3339,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3332,14 +3356,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,14 +3389,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,14 +3405,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3398,11 +3422,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3414,14 +3438,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3431,11 +3455,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3447,14 +3471,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3464,11 +3488,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3480,14 +3504,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,11 +3521,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3513,14 +3537,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,49 +3554,181 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>222</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>54</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>32</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>212</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>223</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>194</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>32</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>195</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>224</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>4414.4650000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>219</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>220</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>221</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>32</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>201</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>111</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>32</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>226</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4499.4650000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>227</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>228</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>229</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3921,10 +4077,30 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
@@ -152,6 +161,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CARDILOL 6.25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -206,6 +224,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CHOLEROSE 20MG 21 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
   </si>
   <si>
@@ -341,6 +368,12 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -422,15 +455,18 @@
     <t>100.00</t>
   </si>
   <si>
+    <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -485,6 +521,15 @@
     <t>67.3200</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
@@ -536,12 +581,6 @@
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -596,9 +635,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -692,7 +728,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 7:06 PM</t>
+    <t>Monday, 4 August, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1471,15 +1507,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1491,28 +1527,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1524,24 +1560,24 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1564,21 +1600,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1590,14 +1626,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1630,7 +1666,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1647,7 +1683,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1663,7 +1699,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1696,7 +1732,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1706,14 +1742,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1722,14 +1758,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1739,14 +1775,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1755,14 +1791,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1772,14 +1808,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1788,14 +1824,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1805,14 +1841,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1821,14 +1857,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1861,7 +1897,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1878,7 +1914,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1894,7 +1930,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1911,7 +1947,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1927,7 +1963,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1937,11 +1973,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1953,14 +1989,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1970,11 +2006,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1986,31 +2022,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2019,14 +2055,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2036,14 +2072,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2076,7 +2112,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2092,24 +2128,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2125,7 +2161,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2142,7 +2178,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2175,7 +2211,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2191,7 +2227,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2201,14 +2237,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2224,7 +2260,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2234,14 +2270,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2250,14 +2286,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2267,11 +2303,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2283,14 +2319,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2300,14 +2336,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2316,14 +2352,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2333,14 +2369,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2349,14 +2385,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2366,14 +2402,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2382,31 +2418,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2415,14 +2451,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2432,14 +2468,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2448,14 +2484,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2465,14 +2501,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2481,31 +2517,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2514,28 +2550,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2547,7 +2583,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2564,14 +2600,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2580,14 +2616,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2597,14 +2633,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2613,28 +2649,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2646,14 +2682,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2663,14 +2699,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,31 +2715,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2712,14 +2748,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2729,11 +2765,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2745,31 +2781,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2778,14 +2814,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2795,11 +2831,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2811,14 +2847,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2828,11 +2864,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2844,31 +2880,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2877,14 +2913,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2894,14 +2930,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2910,31 +2946,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2943,14 +2979,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2960,14 +2996,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2976,7 +3012,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2993,14 +3029,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3009,14 +3045,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3026,11 +3062,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3042,14 +3078,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3066,7 +3102,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3082,7 +3118,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3092,11 +3128,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3108,14 +3144,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,11 +3161,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3141,14 +3177,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3158,14 +3194,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3174,14 +3210,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3191,14 +3227,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3207,14 +3243,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3224,14 +3260,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3240,28 +3276,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3273,28 +3309,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3306,28 +3342,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3339,31 +3375,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3372,31 +3408,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3405,31 +3441,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3438,28 +3474,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3471,28 +3507,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3504,28 +3540,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3537,7 +3573,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3550,18 +3586,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3570,31 +3606,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3603,28 +3639,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3636,28 +3672,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3669,66 +3705,264 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>122</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>35</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>228</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>231</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>18</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>35</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>232</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
         <v>60</v>
       </c>
-      <c t="s" r="Q78" s="12">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4499.4650000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>227</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>228</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>229</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>35</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>224</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>235</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>207</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>35</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>120</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>236</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>44</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>35</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>213</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>237</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>122</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>35</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>238</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>5213.4650000000001</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>239</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>240</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>241</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4097,10 +4331,40 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -728,7 +728,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 7:11 PM</t>
+    <t>Monday, 4 August, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -728,7 +728,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 7:13 PM</t>
+    <t>Monday, 4 August, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CAL-MAG D CAPS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
@@ -302,6 +311,9 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -359,6 +371,15 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
   </si>
   <si>
@@ -407,9 +428,6 @@
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>180.0000</t>
   </si>
   <si>
@@ -728,7 +746,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 7:15 PM</t>
+    <t>Monday, 4 August, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1666,13 +1684,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1683,7 +1701,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1699,7 +1717,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1732,7 +1750,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1749,7 +1767,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1782,7 +1800,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1798,7 +1816,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1808,11 +1826,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1824,14 +1842,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1841,14 +1859,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1857,14 +1875,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1874,11 +1892,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1890,14 +1908,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1914,7 +1932,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1963,7 +1981,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1980,7 +1998,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1996,7 +2014,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2029,7 +2047,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2062,7 +2080,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2072,11 +2090,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2088,7 +2106,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2105,7 +2123,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2128,13 +2146,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2145,7 +2163,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2161,13 +2179,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2178,7 +2196,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2194,7 +2212,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2211,7 +2229,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2227,7 +2245,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2253,14 +2271,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2270,14 +2288,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2286,14 +2304,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2303,14 +2321,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2319,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2336,14 +2354,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2352,14 +2370,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2369,14 +2387,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2385,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2402,14 +2420,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2435,14 +2453,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>44</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2451,14 +2469,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2468,14 +2486,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2484,14 +2502,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2501,14 +2519,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2517,7 +2535,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2534,14 +2552,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2550,28 +2568,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2583,14 +2601,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2600,14 +2618,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2616,7 +2634,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2633,14 +2651,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2649,7 +2667,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2666,11 +2684,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2682,7 +2700,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2699,14 +2717,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2715,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2732,11 +2750,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2748,20 +2766,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2769,10 +2787,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2781,28 +2799,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2814,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2831,11 +2849,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2847,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2868,7 +2886,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2880,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2897,14 +2915,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2913,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2930,14 +2948,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2946,28 +2964,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2979,31 +2997,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3012,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3029,11 +3047,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3045,31 +3063,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3078,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3095,14 +3113,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3111,14 +3129,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3128,14 +3146,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3144,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3161,11 +3179,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3177,14 +3195,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3217,7 +3235,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3227,11 +3245,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3243,7 +3261,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3260,11 +3278,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3276,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3293,14 +3311,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3309,7 +3327,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3326,11 +3344,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3342,14 +3360,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3359,11 +3377,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3375,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3392,11 +3410,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3408,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3425,14 +3443,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3441,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3458,14 +3476,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3474,28 +3492,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3507,31 +3525,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3540,31 +3558,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3573,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3590,14 +3608,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3606,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3623,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3639,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3656,11 +3674,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3672,7 +3690,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3689,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3705,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3722,14 +3740,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3738,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3755,11 +3773,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3771,7 +3789,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3788,11 +3806,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3804,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3821,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3837,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3854,11 +3872,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3887,11 +3905,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3903,14 +3921,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3920,49 +3938,148 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>241</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>213</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>35</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>127</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>242</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>44</v>
       </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>5213.4650000000001</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>239</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>240</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>241</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>35</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>219</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>243</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>129</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>35</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>244</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5417.9750000000004</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>245</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>246</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>247</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4361,10 +4478,25 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -65,48 +65,57 @@
     <t>AMARYL 2 MG 30 TABS</t>
   </si>
   <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>18.8100</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>BIONAL 30 CAP</t>
-  </si>
-  <si>
     <t>192.00</t>
   </si>
   <si>
@@ -182,10 +191,13 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>120.00</t>
   </si>
   <si>
-    <t>19.2000</t>
+    <t>38.4000</t>
   </si>
   <si>
     <t>CETAFEN-N 120ML SUSP.</t>
@@ -224,9 +236,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -275,204 +284,228 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>DIAX 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>DUCARBOFEL 30 CAPS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>GALVUS MET 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>207.9000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>IVABRAGIN 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>234.00</t>
+  </si>
+  <si>
+    <t>234.0000</t>
+  </si>
+  <si>
+    <t>KERELLA LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>DUCARBOFEL 30 CAPS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>FUTAPAN 40 MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>GALVUS MET 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>315.00</t>
-  </si>
-  <si>
-    <t>207.9000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INFECTOCURE 250MG/5ML SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>IVABRAGIN 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>234.00</t>
-  </si>
-  <si>
-    <t>234.0000</t>
-  </si>
-  <si>
-    <t>KERELLA LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
   </si>
   <si>
@@ -506,6 +539,9 @@
     <t>57.1200</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -521,6 +557,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PEOPO-OTIC EAR DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -560,12 +602,27 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
     <t>2:7</t>
   </si>
   <si>
+    <t>SIMEDILL EMULSION 120 ML</t>
+  </si>
+  <si>
     <t>SOOTONIC HAIR LOTION 120 ML</t>
   </si>
   <si>
@@ -620,19 +677,19 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -653,7 +710,10 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>ريد 300 ملى</t>
+  </si>
+  <si>
+    <t>90.00</t>
   </si>
   <si>
     <t>ريكسونا حريمي بليه</t>
@@ -677,10 +737,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>22.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -695,9 +752,6 @@
     <t>شامبو جونسون 200مللى</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -746,7 +800,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 7:17 PM</t>
+    <t>Monday, 4 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1420,7 +1474,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1430,14 +1484,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1446,14 +1500,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1463,14 +1517,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1479,14 +1533,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1496,14 +1550,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1512,14 +1566,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1529,14 +1583,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1545,28 +1599,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1578,28 +1632,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1611,24 +1665,24 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1651,21 +1705,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1677,20 +1731,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1701,7 +1755,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1717,13 +1771,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1734,7 +1788,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1750,7 +1804,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1783,7 +1837,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1800,7 +1854,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1816,7 +1870,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1826,14 +1880,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1842,14 +1896,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1899,7 +1953,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1948,7 +2002,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1965,7 +2019,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1981,7 +2035,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2014,7 +2068,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2031,7 +2085,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2047,7 +2101,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2080,7 +2134,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2113,7 +2167,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,14 +2177,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2139,14 +2193,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,7 +2210,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2179,13 +2233,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2196,7 +2250,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2212,7 +2266,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2229,7 +2283,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2251,18 +2305,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2271,14 +2325,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2288,14 +2342,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2304,14 +2358,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2321,14 +2375,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2337,14 +2391,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2354,14 +2408,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2377,7 +2431,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2394,7 +2448,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2410,7 +2464,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2420,14 +2474,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2443,7 +2497,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,14 +2507,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2469,14 +2523,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2486,14 +2540,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2502,14 +2556,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2519,14 +2573,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2535,14 +2589,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2552,14 +2606,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2575,7 +2629,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2585,11 +2639,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2601,14 +2655,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2618,14 +2672,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2634,14 +2688,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,14 +2705,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2667,31 +2721,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2700,14 +2754,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,14 +2771,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,14 +2787,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,14 +2804,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2766,31 +2820,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2799,28 +2853,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2849,14 +2903,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2865,14 +2919,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,14 +2936,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2898,28 +2952,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2931,14 +2985,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,11 +3002,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2964,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +3035,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3010,7 +3064,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3021,7 +3075,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3037,13 +3091,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3051,10 +3105,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3063,31 +3117,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3150,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,14 +3167,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3129,20 +3183,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3153,7 +3207,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3169,7 +3223,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3179,11 +3233,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3195,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,11 +3266,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3228,31 +3282,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3261,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,11 +3332,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3294,14 +3348,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,14 +3365,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3398,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3414,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,11 +3431,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3393,14 +3447,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3464,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3426,14 +3480,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3497,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,14 +3513,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,11 +3530,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3492,14 +3546,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,11 +3563,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3532,7 +3586,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,14 +3596,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,14 +3629,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,28 +3645,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3624,28 +3678,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3657,28 +3711,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3690,31 +3744,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3723,31 +3777,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,28 +3810,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3789,31 +3843,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,31 +3876,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,28 +3909,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3888,28 +3942,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3921,28 +3975,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3954,28 +4008,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3987,31 +4041,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4027,13 +4081,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4041,45 +4095,342 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>44</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5417.9750000000004</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>245</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>246</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>16</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>38</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>90</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>247</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>34</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>38</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>248</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>250</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>251</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>38</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>252</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>254</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>139</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>38</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>252</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>255</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>34</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>38</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>256</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>258</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>67</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>38</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>248</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>259</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>232</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>38</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>107</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>260</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>47</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>38</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>239</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>261</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>139</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>38</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>262</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5865.0550000000003</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>263</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>264</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>265</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4493,10 +4844,55 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -251,6 +251,12 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
   </si>
   <si>
@@ -266,7 +272,7 @@
     <t>63.00</t>
   </si>
   <si>
-    <t>20.7900</t>
+    <t>41.5800</t>
   </si>
   <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
@@ -800,7 +806,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 8:22 PM</t>
+    <t>Monday, 4 August, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2082,10 +2088,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2094,14 +2100,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2111,14 +2117,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2127,14 +2133,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2144,14 +2150,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2160,7 +2166,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2177,14 +2183,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2193,14 +2199,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,14 +2216,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2233,7 +2239,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2243,11 +2249,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2259,14 +2265,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2276,11 +2282,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2292,31 +2298,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2325,31 +2331,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2358,14 +2364,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2375,14 +2381,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2391,14 +2397,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2408,14 +2414,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2424,14 +2430,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,14 +2447,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2457,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2480,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2490,14 +2496,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2507,14 +2513,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2523,14 +2529,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2540,11 +2546,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2556,14 +2562,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2573,14 +2579,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2589,14 +2595,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2606,14 +2612,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2622,14 +2628,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2639,14 +2645,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2655,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,14 +2678,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2705,14 +2711,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2721,14 +2727,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2738,14 +2744,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2754,14 +2760,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2771,14 +2777,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2853,31 +2859,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>149</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2893,24 +2899,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2936,14 +2942,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2952,28 +2958,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2985,28 +2991,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3018,7 +3024,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3035,11 +3041,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3084,31 +3090,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3117,28 +3123,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3150,14 +3156,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3183,31 +3189,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3216,31 +3222,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,14 +3272,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3289,13 +3295,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3303,7 +3309,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3315,31 +3321,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3355,7 +3361,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,11 +3371,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3381,14 +3387,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3414,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,14 +3437,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,14 +3453,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,14 +3470,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3480,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,11 +3503,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3513,14 +3519,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,14 +3536,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3553,7 +3559,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,11 +3569,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3579,7 +3585,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3596,11 +3602,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3645,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3678,7 +3684,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3695,11 +3701,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,11 +3734,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3744,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,11 +3767,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3777,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,11 +3800,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3810,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,11 +3833,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3843,14 +3849,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,14 +3866,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3893,14 +3899,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>47</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,31 +3915,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3949,7 +3955,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3959,11 +3965,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3982,7 +3988,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3992,11 +3998,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4008,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4029,7 +4035,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>147</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4124,14 +4130,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,14 +4146,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4157,11 +4163,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4190,11 +4196,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4206,14 +4212,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4223,11 +4229,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4256,11 +4262,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4289,11 +4295,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4322,11 +4328,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4338,14 +4344,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4355,11 +4361,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4388,49 +4394,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>263</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>141</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>38</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>264</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>73</v>
       </c>
-      <c t="s" r="Q96" s="12">
+      <c t="s" r="Q97" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5865.0550000000003</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>263</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>264</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5959.8450000000003</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
         <v>265</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>266</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>267</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4889,10 +4928,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -461,6 +461,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
@@ -599,13 +608,13 @@
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>45.00</t>
   </si>
   <si>
-    <t>14.8500</t>
+    <t>29.7000</t>
   </si>
   <si>
     <t>RANI-F 20MG 6 SACHETS</t>
@@ -806,7 +815,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 8:28 PM</t>
+    <t>Monday, 4 August, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2899,24 +2908,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2925,31 +2934,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2965,7 +2974,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2982,7 +2991,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2998,13 +3007,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3031,21 +3040,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3057,7 +3066,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3074,11 +3083,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,20 +3132,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3147,7 +3156,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3163,21 +3172,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3229,24 +3238,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,31 +3264,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3314,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,28 +3330,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3361,13 +3370,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3375,10 +3384,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,11 +3413,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3427,7 +3436,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3460,7 +3469,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3477,7 +3486,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3493,7 +3502,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,14 +3512,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3585,14 +3594,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,11 +3611,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3618,7 +3627,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3635,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3658,7 +3667,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,14 +3677,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3757,7 +3766,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,11 +3776,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3823,7 +3832,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3856,7 +3865,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,11 +3875,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>228</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>47</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,31 +3957,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,11 +4007,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4035,7 +4044,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4054,7 +4063,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4087,7 +4096,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,7 +4122,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>149</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4153,7 +4162,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4205,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4219,7 +4228,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,11 +4238,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,11 +4271,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,11 +4304,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4318,7 +4327,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4328,11 +4337,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4344,14 +4353,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4361,11 +4370,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4394,11 +4403,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4410,14 +4419,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4427,49 +4436,82 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>266</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>141</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>38</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>267</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>73</v>
       </c>
-      <c t="s" r="Q97" s="12">
+      <c t="s" r="Q98" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5959.8450000000003</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>265</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>266</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>267</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>6002.415</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>268</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>269</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>270</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4933,10 +4975,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -431,6 +443,9 @@
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
   </si>
   <si>
@@ -470,6 +485,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>248.0000</t>
+  </si>
+  <si>
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
@@ -521,6 +545,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>MY-VITOS 30SOFT GELATIN CAPSULES</t>
   </si>
   <si>
@@ -620,9 +650,6 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -671,6 +698,21 @@
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TRENDO 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -680,6 +722,9 @@
     <t>550.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -782,12 +827,6 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -809,13 +848,16 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
     <t xml:space="preserve">مناديل جيب مبلله </t>
   </si>
   <si>
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 8:30 PM</t>
+    <t>Monday, 4 August, 2025 8:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1572,7 +1614,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1605,7 +1647,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1614,14 +1656,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1631,14 +1673,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1654,13 +1696,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1687,21 +1729,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1713,28 +1755,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1746,20 +1788,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1786,24 +1828,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1812,31 +1854,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1845,14 +1887,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1862,11 +1904,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1878,14 +1920,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1902,7 +1944,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1918,7 +1960,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1928,14 +1970,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1944,14 +1986,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2001,7 +2043,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2017,7 +2059,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2027,11 +2069,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2043,14 +2085,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2060,14 +2102,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2076,14 +2118,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2093,14 +2135,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2109,14 +2151,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2126,14 +2168,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2142,14 +2184,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2159,14 +2201,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2175,14 +2217,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2192,14 +2234,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2208,7 +2250,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2225,14 +2267,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2241,14 +2283,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2258,14 +2300,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2274,14 +2316,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2291,11 +2333,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2307,14 +2349,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2324,11 +2366,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2340,31 +2382,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2373,31 +2415,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2406,14 +2448,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2423,14 +2465,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2439,14 +2481,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2456,14 +2498,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2472,14 +2514,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2489,14 +2531,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2505,14 +2547,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2522,14 +2564,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2538,14 +2580,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2555,14 +2597,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2571,14 +2613,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2588,11 +2630,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2604,14 +2646,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2621,14 +2663,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2637,14 +2679,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2654,14 +2696,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2670,14 +2712,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2687,14 +2729,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2703,14 +2745,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2720,14 +2762,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2736,14 +2778,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2753,14 +2795,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2769,14 +2811,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2786,14 +2828,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2802,14 +2844,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2819,14 +2861,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2835,14 +2877,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,14 +2894,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2868,14 +2910,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2885,14 +2927,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>149</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2901,14 +2943,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2918,14 +2960,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2934,31 +2976,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2967,14 +3009,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2984,14 +3026,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3000,28 +3042,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3033,31 +3075,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3066,14 +3108,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3083,11 +3125,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3099,28 +3141,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3132,14 +3174,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3149,14 +3191,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3165,28 +3207,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3198,14 +3240,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,14 +3257,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3231,14 +3273,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3248,11 +3290,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3264,31 +3306,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>178</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3297,14 +3339,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,11 +3356,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3330,14 +3372,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3347,11 +3389,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3363,31 +3405,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3396,14 +3438,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,11 +3455,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3429,14 +3471,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3446,14 +3488,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3462,28 +3504,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3495,14 +3537,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,11 +3554,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3528,14 +3570,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,14 +3587,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3568,7 +3610,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3620,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3594,14 +3636,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,11 +3653,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3634,7 +3676,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,14 +3686,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3660,14 +3702,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3677,14 +3719,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3693,14 +3735,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,14 +3752,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3726,14 +3768,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,11 +3785,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3759,14 +3801,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,11 +3818,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3792,14 +3834,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,14 +3851,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3825,14 +3867,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,11 +3884,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3858,14 +3900,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,11 +3917,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3891,14 +3933,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,11 +3950,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3924,14 +3966,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,14 +3983,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>231</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3964,7 +4006,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3974,14 +4016,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,28 +4032,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4023,31 +4065,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4056,28 +4098,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4089,28 +4131,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4122,31 +4164,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4155,20 +4197,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4179,7 +4221,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>149</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4195,21 +4237,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4221,28 +4263,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4267,7 +4309,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4275,7 +4317,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4287,28 +4329,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4320,31 +4362,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4360,24 +4402,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4386,28 +4428,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4419,28 +4461,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4452,66 +4494,297 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>6002.415</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>272</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>146</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>42</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>26</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>273</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>38</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>42</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>274</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>276</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>71</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>42</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
         <v>268</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>269</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>270</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>277</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>252</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>42</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>113</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>278</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>51</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>42</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>259</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>279</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>71</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>42</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>135</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>280</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>146</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>42</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>281</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6479.915</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>282</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>283</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>284</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4980,10 +5253,45 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -281,6 +281,9 @@
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -473,9 +476,6 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -494,6 +494,15 @@
     <t>248.0000</t>
   </si>
   <si>
+    <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
@@ -584,6 +593,15 @@
     <t>57.1200</t>
   </si>
   <si>
+    <t>NODY NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -599,7 +617,13 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>PANMIST 15 GM GEL</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
   </si>
   <si>
     <t>PEOPO-OTIC EAR DROPS 15 ML</t>
@@ -641,9 +665,6 @@
     <t>6:2</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>29.7000</t>
   </si>
   <si>
@@ -656,6 +677,15 @@
     <t>6.7200</t>
   </si>
   <si>
+    <t>RONY OCEAN SYRUP</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -680,6 +710,9 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -722,6 +755,15 @@
     <t>550.0000</t>
   </si>
   <si>
+    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -737,6 +779,12 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -782,9 +830,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
     <t>زيت شعر املا 90 مل</t>
   </si>
   <si>
@@ -797,7 +842,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -857,7 +905,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 8:46 PM</t>
+    <t>Monday, 4 August, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2224,7 +2272,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2234,11 +2282,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2250,7 +2298,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2267,11 +2315,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2283,7 +2331,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2300,11 +2348,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2316,7 +2364,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2337,7 +2385,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2349,7 +2397,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2366,11 +2414,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2382,14 +2430,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2399,11 +2447,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2415,7 +2463,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2432,11 +2480,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2448,7 +2496,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2465,11 +2513,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2481,7 +2529,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2498,11 +2546,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2514,7 +2562,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2547,7 +2595,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2564,11 +2612,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>75</v>
@@ -2580,7 +2628,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2601,10 +2649,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2613,7 +2661,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2630,11 +2678,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2646,7 +2694,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2663,11 +2711,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2679,7 +2727,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2696,11 +2744,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2712,14 +2760,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2733,7 +2781,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>64</v>
@@ -2745,7 +2793,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2762,11 +2810,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2778,7 +2826,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2795,11 +2843,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2811,7 +2859,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2828,11 +2876,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2844,7 +2892,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2861,11 +2909,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>71</v>
@@ -2877,14 +2925,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2894,11 +2942,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2910,7 +2958,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2927,11 +2975,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2943,7 +2991,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2960,14 +3008,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3049,21 +3097,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3075,31 +3123,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3115,7 +3163,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3132,7 +3180,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3148,13 +3196,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3181,21 +3229,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3207,7 +3255,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3224,11 +3272,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3240,14 +3288,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3257,14 +3305,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3273,14 +3321,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3294,7 +3342,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3306,31 +3354,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3346,21 +3394,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3372,14 +3420,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3389,14 +3437,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3412,24 +3460,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>188</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3438,31 +3486,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3471,14 +3519,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3488,14 +3536,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3504,31 +3552,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3537,14 +3585,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3554,14 +3602,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3570,31 +3618,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3627,7 +3675,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3643,7 +3691,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3657,7 +3705,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3669,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3686,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3702,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3719,11 +3767,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3735,14 +3783,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3752,11 +3800,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3768,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3785,14 +3833,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3801,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3818,14 +3866,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3834,31 +3882,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3867,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3884,11 +3932,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3900,7 +3948,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3917,11 +3965,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3940,7 +3988,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3950,11 +3998,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3966,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3983,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4006,7 +4054,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4016,14 +4064,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4032,7 +4080,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4049,11 +4097,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4065,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4082,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4098,7 +4146,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4115,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4131,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4148,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4164,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4181,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>246</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4197,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4221,7 +4269,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4237,24 +4285,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4263,28 +4311,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4303,21 +4351,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4329,28 +4377,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4362,31 +4410,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>262</v>
-      </c>
-      <c t="s" r="Q94" s="12">
-        <v>256</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4402,24 +4450,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>154</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4428,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4445,11 +4493,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4461,14 +4509,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4478,11 +4526,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4494,14 +4542,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4511,11 +4559,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4527,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4544,11 +4592,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4560,7 +4608,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4577,14 +4625,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4593,14 +4641,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4610,14 +4658,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4626,14 +4674,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4643,11 +4691,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4659,14 +4707,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4676,11 +4724,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4692,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4709,11 +4757,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4725,14 +4773,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4742,49 +4790,247 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>289</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>38</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>42</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>290</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>292</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>71</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>42</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>284</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>293</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>268</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>42</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>114</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>294</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>51</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>42</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>274</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>295</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>71</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>42</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>136</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>296</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>147</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>42</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>297</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>77</v>
       </c>
-      <c t="s" r="Q105" s="12">
+      <c t="s" r="Q111" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6479.915</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>282</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>283</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>284</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6904.915</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>298</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>299</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>300</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5288,10 +5534,40 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -77,177 +77,177 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>BROMAGAR ORAL DROPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CAL-MAG D CAPS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CARDILOL 6.25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>38.4000</t>
+  </si>
+  <si>
+    <t>CETAFEN-N 120ML SUSP.</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>18.8100</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>BIONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>30.5000</t>
-  </si>
-  <si>
-    <t>BRAN 60 CAPS. (MEPACO)</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>BROMAGAR ORAL DROPS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CAL-MAG D CAPS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>CANDALKAN 4MG 14 TABLETS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CARDILOL 6.25MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>38.4000</t>
-  </si>
-  <si>
-    <t>CETAFEN-N 120ML SUSP.</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -314,6 +314,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>COXRITOR 90 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -341,6 +350,24 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAGLOBE 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -419,12 +446,6 @@
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -812,6 +833,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -842,10 +872,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -905,7 +935,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:00 PM</t>
+    <t>Monday, 4 August, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1626,10 +1656,10 @@
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1728,7 +1758,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1737,14 +1767,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1754,11 +1784,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1770,28 +1800,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1803,7 +1833,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1824,7 +1854,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1836,28 +1866,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1869,14 +1899,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1886,11 +1916,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1902,7 +1932,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1915,15 +1945,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1935,14 +1965,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1952,11 +1982,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1968,14 +1998,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1985,11 +2015,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2001,14 +2031,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2018,11 +2048,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2034,7 +2064,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2051,11 +2081,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2067,14 +2097,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2084,11 +2114,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2100,14 +2130,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2117,11 +2147,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2133,14 +2163,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2173,7 +2203,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2206,7 +2236,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2239,7 +2269,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2371,7 +2401,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2437,7 +2467,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2470,13 +2500,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2487,7 +2517,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2503,13 +2533,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2520,7 +2550,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2536,7 +2566,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2569,7 +2599,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2579,14 +2609,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2595,14 +2625,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2612,14 +2642,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2628,14 +2658,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2645,14 +2675,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2661,14 +2691,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2678,14 +2708,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2701,7 +2731,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2718,7 +2748,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2734,7 +2764,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2744,14 +2774,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2767,7 +2797,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,14 +2807,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2800,7 +2830,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2833,7 +2863,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2866,7 +2896,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2876,14 +2906,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2899,7 +2929,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2909,14 +2939,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2925,14 +2955,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,14 +2972,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2958,14 +2988,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2975,14 +3005,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2991,14 +3021,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3008,14 +3038,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3024,14 +3054,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,14 +3071,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3057,14 +3087,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3074,14 +3104,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3090,14 +3120,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,14 +3137,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3123,31 +3153,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3156,14 +3186,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3173,14 +3203,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,14 +3219,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,11 +3236,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3222,28 +3252,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3255,7 +3285,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3272,14 +3302,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3295,7 +3325,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,11 +3335,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3321,31 +3351,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3354,14 +3384,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,14 +3401,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3394,21 +3424,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3420,14 +3450,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3437,14 +3467,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3483,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,11 +3500,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3493,24 +3523,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3519,14 +3549,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,11 +3566,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3552,14 +3582,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3569,14 +3599,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3585,20 +3615,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3606,10 +3636,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3618,31 +3648,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3651,14 +3681,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3668,11 +3698,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>67</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3691,7 +3721,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3705,10 +3735,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3724,24 +3754,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,14 +3780,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,14 +3797,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3783,14 +3813,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,11 +3830,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3816,14 +3846,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,14 +3863,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3849,14 +3879,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,11 +3896,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3882,28 +3912,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3915,14 +3945,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,14 +3962,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3948,14 +3978,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +3995,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,28 +4011,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4014,14 +4044,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4061,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,11 +4094,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4080,14 +4110,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,11 +4127,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4113,14 +4143,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4160,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4146,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4170,7 +4200,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4186,7 +4216,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4200,10 +4230,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,14 +4242,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,11 +4259,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4245,14 +4275,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,14 +4292,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,11 +4325,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4318,7 +4348,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4351,7 +4381,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4361,11 +4391,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4377,14 +4407,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,14 +4424,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4410,14 +4440,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4434,7 +4464,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,14 +4473,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4460,14 +4490,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,28 +4506,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4509,31 +4539,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,31 +4572,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>162</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,28 +4605,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4608,31 +4638,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>278</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4648,13 +4678,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4662,10 +4692,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,28 +4704,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4714,13 +4744,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4747,24 +4777,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4773,31 +4803,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,28 +4836,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4839,28 +4869,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4872,28 +4902,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4905,28 +4935,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4938,28 +4968,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4971,66 +5001,198 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6904.915</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>298</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>299</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>300</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>303</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>278</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>41</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>123</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>304</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>50</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>41</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>284</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>305</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>70</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>41</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>117</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>306</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>154</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>41</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>307</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>7210.5349999999999</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>308</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>309</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>310</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5564,10 +5726,30 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -915,6 +915,12 @@
   </si>
   <si>
     <t>8.0000</t>
+  </si>
+  <si>
+    <t>مزيل عرق فوج FOGG MASTER</t>
+  </si>
+  <si>
+    <t>120.0000</t>
   </si>
   <si>
     <t xml:space="preserve">مسواك اسنان </t>
@@ -5008,7 +5014,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,11 +5024,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>64</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5034,14 +5040,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5051,11 +5057,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5067,14 +5073,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5084,11 +5090,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>284</v>
+        <v>123</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5100,14 +5106,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5117,11 +5123,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5133,14 +5139,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5150,49 +5156,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>308</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>154</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>41</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>309</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>76</v>
       </c>
-      <c t="s" r="Q115" s="12">
+      <c t="s" r="Q116" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>7210.5349999999999</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>308</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>309</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>7330.5349999999999</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
         <v>310</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>311</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>312</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5746,10 +5785,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -941,7 +941,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:02 PM</t>
+    <t>Monday, 4 August, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -110,267 +110,267 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>BROMAGAR ORAL DROPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CAL-MAG D CAPS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CARDILOL 6.25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>38.4000</t>
+  </si>
+  <si>
+    <t>CETAFEN-N 120ML SUSP.</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CHOLEROSE 20MG 21 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAGLOBE 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>BIONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>30.5000</t>
-  </si>
-  <si>
-    <t>BRAN 60 CAPS. (MEPACO)</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>BROMAGAR ORAL DROPS</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CAL-MAG D CAPS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>CANDALKAN 4MG 14 TABLETS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CARDILOL 6.25MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>38.4000</t>
-  </si>
-  <si>
-    <t>CETAFEN-N 120ML SUSP.</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CHOLEROSE 20MG 21 F.C. TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>COLOVERIN D 135MG 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTROLEPSY 50 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAGLOBE 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -389,6 +389,15 @@
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -872,10 +881,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -908,6 +914,12 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -941,7 +953,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:03 PM</t>
+    <t>Monday, 4 August, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1764,7 +1776,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1790,11 +1802,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1806,28 +1818,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1839,7 +1851,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1860,7 +1872,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1872,28 +1884,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1905,14 +1917,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1922,11 +1934,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1938,7 +1950,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1951,15 +1963,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1988,11 +2000,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2004,14 +2016,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2021,11 +2033,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2176,7 +2188,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2186,11 +2198,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2202,14 +2214,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2219,11 +2231,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2252,7 +2264,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2285,11 +2297,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2301,14 +2313,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2318,11 +2330,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2334,7 +2346,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2351,11 +2363,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2367,7 +2379,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2384,11 +2396,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2400,14 +2412,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2421,7 +2433,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2433,7 +2445,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2450,11 +2462,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2466,7 +2478,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2483,11 +2495,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2499,7 +2511,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2516,11 +2528,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2532,7 +2544,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2545,15 +2557,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2565,14 +2577,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2582,11 +2594,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2598,7 +2610,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2615,11 +2627,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2671,7 +2683,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2714,11 +2726,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2737,7 +2749,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2754,7 +2766,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2770,7 +2782,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2803,7 +2815,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2836,7 +2848,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2869,7 +2881,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2886,7 +2898,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2902,7 +2914,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2912,14 +2924,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2935,7 +2947,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2945,14 +2957,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2961,14 +2973,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3001,7 +3013,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3018,7 +3030,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3034,7 +3046,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3093,14 +3105,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3117,7 +3129,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3133,7 +3145,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3147,10 +3159,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3176,14 +3188,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3199,7 +3211,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3216,7 +3228,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3232,7 +3244,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3249,7 +3261,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3265,21 +3277,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3291,31 +3303,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3331,7 +3343,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3348,7 +3360,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3364,13 +3376,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3397,21 +3409,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3423,7 +3435,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3440,11 +3452,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3456,14 +3468,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3473,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3489,14 +3501,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3510,7 +3522,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3522,31 +3534,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3562,21 +3574,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3588,14 +3600,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,14 +3617,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3628,24 +3640,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>198</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3654,20 +3666,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3678,7 +3690,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3694,7 +3706,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,11 +3716,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3720,14 +3732,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,14 +3749,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3753,28 +3765,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3786,31 +3798,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3826,7 +3838,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3840,7 +3852,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3852,14 +3864,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3869,11 +3881,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3892,7 +3904,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3902,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3925,7 +3937,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3942,7 +3954,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3958,7 +3970,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3968,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3991,7 +4003,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4001,14 +4013,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4024,13 +4036,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4041,7 +4053,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4057,21 +4069,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4083,14 +4095,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4100,11 +4112,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4116,14 +4128,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,11 +4145,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4156,7 +4168,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4178,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4182,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>119</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4211,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4215,14 +4227,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4255,7 +4267,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,11 +4277,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4281,7 +4293,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4298,14 +4310,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4321,7 +4333,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4335,7 +4347,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4347,14 +4359,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,14 +4376,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4387,7 +4399,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4420,7 +4432,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,14 +4442,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4446,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,14 +4475,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4486,7 +4498,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4496,11 +4508,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4512,14 +4524,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4529,11 +4541,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4545,14 +4557,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,14 +4574,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>269</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,14 +4590,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4595,14 +4607,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>50</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4611,14 +4623,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4635,7 +4647,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4651,21 +4663,21 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>70</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>124</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4677,28 +4689,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4710,28 +4722,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4743,28 +4755,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4783,24 +4795,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4816,24 +4828,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>90</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4842,31 +4854,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>97</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4875,28 +4887,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4908,28 +4920,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>26</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4948,13 +4960,13 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -4974,28 +4986,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5014,21 +5026,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5040,28 +5052,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5073,28 +5085,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5106,28 +5118,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5139,28 +5151,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5172,66 +5184,132 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>311</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>70</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>42</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>116</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>312</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>157</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>42</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>313</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>76</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>7330.5349999999999</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>310</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>311</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>312</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7554.2150000000001</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>314</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>315</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>316</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5790,10 +5868,20 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -953,7 +953,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:08 PM</t>
+    <t>Monday, 4 August, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -506,6 +515,9 @@
     <t>22.00</t>
   </si>
   <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -953,7 +965,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:09 PM</t>
+    <t>Monday, 4 August, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,7 +1672,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1670,14 +1682,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1703,14 +1715,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1719,14 +1731,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1736,14 +1748,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1752,14 +1764,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1769,14 +1781,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1785,14 +1797,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1802,14 +1814,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1818,28 +1830,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1851,28 +1863,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1884,24 +1896,24 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1924,21 +1936,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1950,20 +1962,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1974,7 +1986,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1990,13 +2002,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2007,7 +2019,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2023,7 +2035,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2056,7 +2068,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2073,7 +2085,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2089,7 +2101,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2106,7 +2118,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2122,7 +2134,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2132,11 +2144,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2165,14 +2177,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2181,14 +2193,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2221,7 +2233,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2238,7 +2250,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2254,7 +2266,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2268,10 +2280,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2297,14 +2309,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2320,7 +2332,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2370,7 +2382,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2403,7 +2415,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2419,7 +2431,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2462,7 +2474,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2518,7 +2530,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2551,13 +2563,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2568,7 +2580,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2584,13 +2596,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2617,7 +2629,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2650,7 +2662,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2660,14 +2672,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2700,7 +2712,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2716,7 +2728,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2782,7 +2794,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2799,7 +2811,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2815,7 +2827,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2848,7 +2860,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2881,7 +2893,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2914,7 +2926,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2931,7 +2943,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2947,7 +2959,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2980,7 +2992,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3046,7 +3058,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3063,7 +3075,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3079,7 +3091,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3089,14 +3101,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3162,7 +3174,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3178,7 +3190,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3192,10 +3204,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3303,28 +3315,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3336,31 +3348,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3386,14 +3398,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3402,28 +3414,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3435,28 +3447,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3468,7 +3480,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3485,11 +3497,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3541,7 +3553,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3551,11 +3563,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3567,31 +3579,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3600,28 +3612,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3666,20 +3678,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3690,7 +3702,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>201</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3706,24 +3718,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3749,11 +3761,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3798,28 +3810,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3831,31 +3843,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3881,11 +3893,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3914,11 +3926,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3963,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4013,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,14 +4058,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4062,31 +4074,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4095,28 +4107,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4145,11 +4157,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4161,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4194,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>19</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4227,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4244,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4267,7 +4279,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,11 +4289,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,11 +4322,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4326,7 +4338,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,11 +4388,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4392,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4425,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4442,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,14 +4487,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4491,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4508,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4524,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,11 +4553,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4557,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4574,11 +4586,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4590,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4607,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4623,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4640,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>276</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4663,7 +4675,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4673,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4689,28 +4701,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>73</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4722,28 +4734,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4755,28 +4767,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4788,28 +4800,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4821,31 +4833,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4854,31 +4866,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>89</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,31 +4899,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4920,28 +4932,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4953,28 +4965,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4986,28 +4998,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5019,28 +5031,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5052,28 +5064,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>126</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5085,28 +5097,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5118,28 +5130,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>67</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5151,28 +5163,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>281</v>
+        <v>73</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>124</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5184,28 +5196,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5217,28 +5229,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5250,66 +5262,99 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>313</v>
+        <v>119</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7554.2150000000001</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>314</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>315</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>316</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>160</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>45</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>317</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7612.8450000000003</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>318</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>319</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>320</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5878,10 +5923,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -863,75 +863,84 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>ريد 300 ملى</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>ريكسونا حريمي بليه</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>زيت شعر املا 90 مل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>شامبو جونسون 200مللى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>كريم فريند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>ريد 300 ملى</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>ريكسونا حريمي بليه</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>زيت شعر املا 90 مل</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>شامبو جونسون 200مللى</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>كريم فريند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -965,7 +974,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:14 PM</t>
+    <t>Monday, 4 August, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4741,7 +4750,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>92</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>127</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4767,7 +4776,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4807,7 +4816,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,11 +4826,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4840,7 +4849,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,11 +4859,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,14 +4892,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>49</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>294</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4916,14 +4925,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>92</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>99</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +4991,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,11 +5024,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>29</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5071,7 +5080,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5090,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5097,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5123,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>126</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5137,7 +5146,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,11 +5156,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>67</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,11 +5189,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5196,14 +5205,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,11 +5222,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,11 +5255,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>292</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,11 +5288,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,49 +5321,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>119</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>319</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>160</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>45</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>320</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q119" s="12">
+      <c t="s" r="Q120" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7612.8450000000003</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>318</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>319</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>320</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7644.8450000000003</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>321</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>322</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>323</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5928,10 +5970,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:15 PM</t>
+    <t>Monday, 4 August, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -545,6 +545,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>HAIR PHOTO SHAMPOO</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>235.0000</t>
+  </si>
+  <si>
     <t>HAIRVOGINE 30TAB</t>
   </si>
   <si>
@@ -647,6 +656,12 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -683,6 +698,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -821,6 +842,12 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VITACID C 1GM 12 EFF. TAB.</t>
   </si>
   <si>
@@ -914,6 +941,9 @@
     <t>شامبو جونسون 200مللى</t>
   </si>
   <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -932,9 +962,6 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الصغير</t>
   </si>
   <si>
@@ -953,9 +980,6 @@
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
-    <t>120.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">مسواك اسنان </t>
   </si>
   <si>
@@ -974,7 +998,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:26 PM</t>
+    <t>Monday, 4 August, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3374,11 +3398,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3390,31 +3414,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3430,7 +3454,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3447,7 +3471,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3463,13 +3487,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3496,21 +3520,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3522,7 +3546,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3539,11 +3563,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3555,14 +3579,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3572,14 +3596,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3588,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3609,7 +3633,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3621,31 +3645,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3661,21 +3685,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3687,14 +3711,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,14 +3728,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3727,24 +3751,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>205</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3753,20 +3777,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3777,7 +3801,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3793,7 +3817,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3803,11 +3827,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3819,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,31 +3876,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3909,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3926,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3925,13 +3949,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3939,10 +3963,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3958,7 +3982,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3968,7 +3992,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4005,10 +4029,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4017,14 +4041,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,11 +4058,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4050,31 +4074,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4083,14 +4107,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,11 +4124,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4116,28 +4140,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4149,14 +4173,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,14 +4190,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,14 +4206,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4223,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,7 +4239,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4228,15 +4252,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4248,14 +4272,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,14 +4289,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4281,14 +4305,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,11 +4322,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4314,7 +4338,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4331,11 +4355,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4347,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,14 +4388,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4380,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4404,7 +4428,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4434,10 +4458,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4446,14 +4470,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,11 +4487,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4479,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4520,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,7 +4536,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4529,11 +4553,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4552,7 +4576,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4585,7 +4609,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,11 +4619,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4611,14 +4635,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,14 +4652,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4644,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4668,7 +4692,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4677,14 +4701,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,11 +4718,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>54</v>
@@ -4710,14 +4734,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,11 +4751,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4743,31 +4767,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,28 +4800,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>54</v>
@@ -4809,28 +4833,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4842,14 +4866,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,11 +4883,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4875,14 +4899,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,14 +4916,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>126</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4932,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4949,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,14 +4965,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,14 +4982,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>176</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5015,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5007,7 +5031,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5024,14 +5048,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5040,14 +5064,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,14 +5081,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>29</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>30</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5073,14 +5097,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5114,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5106,14 +5130,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5139,7 +5163,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5156,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5172,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5205,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5238,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5271,14 +5295,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,11 +5312,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5304,14 +5328,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5321,11 +5345,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5337,14 +5361,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,49 +5378,181 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>324</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>227</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>45</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>126</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>325</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>54</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>45</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>302</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>326</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>73</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>45</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>119</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>327</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>160</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>45</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>328</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q120" s="12">
+      <c t="s" r="Q124" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7644.8450000000003</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>321</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>322</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>323</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>8085.8450000000003</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>329</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>330</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>331</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5975,10 +6131,30 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>38.4000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAFEN-N 120ML SUSP.</t>
   </si>
   <si>
@@ -239,6 +248,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -560,6 +575,12 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -644,6 +665,12 @@
     <t>57.1200</t>
   </si>
   <si>
+    <t>NEXIMERICAN 40 MG 21 CAPS.</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>NODY NASAL SPRAY</t>
   </si>
   <si>
@@ -857,18 +884,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -881,6 +899,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -926,7 +956,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -935,7 +965,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>شامبو جونسون 200مللى</t>
@@ -963,9 +993,6 @@
   </si>
   <si>
     <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>مجموعه برد</t>
@@ -2167,7 +2194,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2184,7 +2211,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2200,7 +2227,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2210,11 +2237,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2226,14 +2253,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2243,14 +2270,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2259,14 +2286,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2292,14 +2319,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2309,14 +2336,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2325,14 +2352,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2342,11 +2369,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2398,7 +2425,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2408,14 +2435,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2424,14 +2451,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2457,14 +2484,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2474,14 +2501,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2507,7 +2534,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2530,7 +2557,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2547,7 +2574,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2563,7 +2590,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2573,11 +2600,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2589,14 +2616,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2606,11 +2633,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2622,31 +2649,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2655,14 +2682,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2672,14 +2699,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2688,28 +2715,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2721,14 +2748,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2738,14 +2765,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2754,14 +2781,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2771,11 +2798,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2804,14 +2831,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2837,11 +2864,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2853,14 +2880,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2870,14 +2897,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2886,14 +2913,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2903,14 +2930,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2919,14 +2946,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2936,14 +2963,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2952,14 +2979,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2969,14 +2996,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2985,14 +3012,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3002,14 +3029,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3018,14 +3045,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3035,14 +3062,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3051,14 +3078,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3068,14 +3095,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3084,14 +3111,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3101,14 +3128,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3117,14 +3144,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3134,11 +3161,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3150,7 +3177,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3167,14 +3194,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3190,7 +3217,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3200,11 +3227,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3216,7 +3243,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3233,14 +3260,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3249,14 +3276,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,14 +3293,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3282,14 +3309,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3299,14 +3326,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3315,14 +3342,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3332,14 +3359,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3348,14 +3375,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3365,14 +3392,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3381,7 +3408,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3394,18 +3421,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3414,24 +3441,24 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3454,13 +3481,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3471,7 +3498,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3487,21 +3514,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3513,14 +3540,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3530,11 +3557,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3546,7 +3573,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3563,14 +3590,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3586,7 +3613,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3596,11 +3623,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3612,31 +3639,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3645,14 +3672,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3689,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3685,21 +3712,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3711,14 +3738,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,14 +3755,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3744,14 +3771,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,11 +3788,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3784,7 +3811,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3794,14 +3821,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3810,14 +3837,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3827,11 +3854,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3843,14 +3870,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3860,14 +3887,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3876,31 +3903,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>39</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3909,14 +3936,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3926,11 +3953,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3942,31 +3969,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3975,14 +4002,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,11 +4019,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4015,7 +4042,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4025,14 +4052,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4048,7 +4075,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4058,14 +4085,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,14 +4101,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4091,14 +4118,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4107,7 +4134,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4124,14 +4151,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4140,14 +4167,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4157,11 +4184,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4173,14 +4200,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,14 +4217,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4206,31 +4233,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4239,7 +4266,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4252,18 +4279,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4272,14 +4299,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,11 +4316,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4305,14 +4332,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,14 +4349,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4345,7 +4372,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4362,7 +4389,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4378,24 +4405,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4404,14 +4431,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4421,11 +4448,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4454,11 +4481,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4470,14 +4497,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4487,11 +4514,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4510,7 +4537,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4547,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,14 +4563,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4580,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4609,7 +4636,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,11 +4646,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4635,14 +4662,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4652,11 +4679,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4675,7 +4702,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4689,10 +4716,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,14 +4728,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,14 +4745,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,14 +4761,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,7 +4778,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4774,7 +4801,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,14 +4811,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>285</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4800,14 +4827,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4817,14 +4844,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,14 +4860,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,14 +4877,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4866,28 +4893,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4899,31 +4926,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,31 +4959,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4965,31 +4992,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,28 +5025,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5031,14 +5058,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5048,14 +5075,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5071,7 +5098,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5081,14 +5108,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5097,14 +5124,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5114,11 +5141,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5130,14 +5157,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5147,11 +5174,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5170,7 +5197,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5203,7 +5230,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5213,14 +5240,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5236,7 +5263,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5246,14 +5273,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5262,14 +5289,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5279,11 +5306,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5295,14 +5322,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,11 +5339,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>131</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5328,14 +5355,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5345,11 +5372,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>67</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5361,14 +5388,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5378,11 +5405,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5394,14 +5421,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5411,14 +5438,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5427,14 +5454,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5444,11 +5471,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5460,14 +5487,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5477,11 +5504,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5493,14 +5520,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5510,49 +5537,214 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>67</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>332</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>76</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>45</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>322</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>333</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>236</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>45</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>131</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q126" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>8085.8450000000003</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>329</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>330</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>331</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>334</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>54</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>45</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>312</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>335</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>76</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>45</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>124</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>336</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>165</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>45</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>337</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>8449.9449999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>338</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>339</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>340</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6151,10 +6343,35 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:31 PM</t>
+    <t>Monday, 4 August, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -467,6 +467,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -698,9 +710,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>PANMIST 15 GM GEL</t>
   </si>
   <si>
@@ -797,6 +806,15 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -818,6 +836,9 @@
     <t>149.5000</t>
   </si>
   <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
@@ -833,9 +854,6 @@
     <t>TRENDO 20 F.C. TABLETS</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>TRESIBA 100 I.U./ML FLEXTOUCH PRE-FILLED PEN</t>
   </si>
   <si>
@@ -911,6 +929,9 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>ZOMEGIPRAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -1025,7 +1046,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:32 PM</t>
+    <t>Monday, 4 August, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3161,14 +3182,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3194,14 +3215,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3210,14 +3231,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3243,14 +3264,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3293,14 +3314,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3316,7 +3337,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3359,14 +3380,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3375,14 +3396,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3408,14 +3429,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3425,14 +3446,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3441,14 +3462,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3474,28 +3495,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3507,7 +3528,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3524,11 +3545,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3540,14 +3561,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3557,11 +3578,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3573,31 +3594,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3606,14 +3627,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3623,14 +3644,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3639,28 +3660,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3672,28 +3693,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3705,7 +3726,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3722,11 +3743,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3738,14 +3759,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3755,14 +3776,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3778,7 +3799,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3788,11 +3809,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3804,31 +3825,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3837,28 +3858,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3870,14 +3891,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3887,14 +3908,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3903,20 +3924,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3927,7 +3948,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3943,24 +3964,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>219</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3969,14 +3990,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3986,14 +4007,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4002,14 +4023,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4019,11 +4040,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4035,14 +4056,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4052,14 +4073,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4068,14 +4089,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4085,14 +4106,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4101,28 +4122,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4134,31 +4155,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4188,7 +4209,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4200,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4217,11 +4238,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4240,21 +4261,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4266,7 +4287,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4279,18 +4300,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4306,7 +4327,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4323,7 +4344,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4339,7 +4360,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4349,14 +4370,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4372,7 +4393,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4382,14 +4403,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4405,13 +4426,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4422,7 +4443,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4438,21 +4459,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4464,14 +4485,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4481,11 +4502,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4497,7 +4518,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4514,11 +4535,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4537,7 +4558,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4547,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4563,14 +4584,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4580,14 +4601,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4596,14 +4617,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4613,14 +4634,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4629,14 +4650,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4646,11 +4667,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4662,14 +4683,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4679,14 +4700,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4695,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4712,11 +4733,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>92</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4728,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4745,11 +4766,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4761,14 +4782,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4778,14 +4799,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4794,7 +4815,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4811,11 +4832,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4827,14 +4848,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4844,11 +4865,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4860,14 +4881,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4877,14 +4898,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4893,14 +4914,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4910,14 +4931,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4926,14 +4947,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4943,14 +4964,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4959,14 +4980,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4976,11 +4997,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>54</v>
@@ -4992,14 +5013,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5009,14 +5030,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5025,14 +5046,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5042,14 +5063,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5058,31 +5079,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5091,31 +5112,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>62</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5124,28 +5145,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>37</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5157,28 +5178,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>181</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5190,14 +5211,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5207,11 +5228,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5223,14 +5244,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5240,14 +5261,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>315</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5256,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5273,14 +5294,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5289,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5306,11 +5327,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5322,14 +5343,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5339,11 +5360,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5372,14 +5393,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5388,14 +5409,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5405,14 +5426,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>29</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5428,7 +5449,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5438,11 +5459,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5461,7 +5482,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>318</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5527,7 +5548,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5537,11 +5558,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5553,14 +5574,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5570,11 +5591,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5586,14 +5607,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5607,10 +5628,10 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5619,14 +5640,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5636,11 +5657,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5652,14 +5673,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5669,11 +5690,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5685,14 +5706,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5702,49 +5723,181 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>340</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>239</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>45</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>131</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>341</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>54</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>45</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>319</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>342</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>76</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>45</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>124</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>343</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>169</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>45</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>344</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q129" s="12">
+      <c t="s" r="Q133" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>8449.9449999999997</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>338</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>339</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>340</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>8625.4050000000007</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>345</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>346</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>347</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6368,10 +6521,30 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -554,6 +554,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -776,6 +785,9 @@
     <t>6.7200</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
     <t>RONY OCEAN SYRUP</t>
   </si>
   <si>
@@ -1046,7 +1058,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:40 PM</t>
+    <t>Monday, 4 August, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3486,7 +3498,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3502,7 +3514,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3519,7 +3531,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3535,13 +3547,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3578,11 +3590,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3594,14 +3606,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3611,11 +3623,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3627,31 +3639,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3667,7 +3679,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3684,7 +3696,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3700,13 +3712,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3733,21 +3745,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3759,7 +3771,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3776,11 +3788,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3809,14 +3821,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3825,14 +3837,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3846,7 +3858,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3858,31 +3870,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3898,21 +3910,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3964,24 +3976,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3990,31 +4002,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4063,7 +4075,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4073,11 +4085,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4106,14 +4118,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4139,14 +4151,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4155,28 +4167,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4188,31 +4200,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,7 +4254,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4271,11 +4283,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4294,21 +4306,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4320,7 +4332,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4333,18 +4345,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4360,7 +4372,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4377,7 +4389,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4393,7 +4405,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4426,7 +4438,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4436,14 +4448,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4459,13 +4471,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4476,7 +4488,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4492,7 +4504,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4502,11 +4514,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4518,7 +4530,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4531,15 +4543,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>105</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4568,11 +4580,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>51</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4591,7 +4603,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4601,14 +4613,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4624,7 +4636,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4641,7 +4653,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4657,7 +4669,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4667,14 +4679,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4683,14 +4695,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4700,14 +4712,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4716,14 +4728,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,14 +4745,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>92</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4756,7 +4768,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4766,11 +4778,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4782,7 +4794,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4799,11 +4811,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>92</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4822,7 +4834,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,14 +4844,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4855,7 +4867,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4872,7 +4884,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4898,14 +4910,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4914,7 +4926,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4931,14 +4943,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4954,7 +4966,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4987,7 +4999,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4997,14 +5009,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5013,7 +5025,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5030,11 +5042,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5046,14 +5058,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,14 +5075,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5086,7 +5098,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5096,14 +5108,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5112,14 +5124,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,14 +5141,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5145,14 +5157,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5162,14 +5174,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5178,14 +5190,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5202,7 +5214,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5218,21 +5230,21 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5244,31 +5256,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>62</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5284,7 +5296,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5298,7 +5310,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>162</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5310,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5327,14 +5339,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5350,7 +5362,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5364,7 +5376,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5376,14 +5388,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,14 +5405,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>293</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>322</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5409,14 +5421,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5426,14 +5438,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>87</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5442,14 +5454,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,14 +5471,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5482,7 +5494,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5492,14 +5504,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5508,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,11 +5537,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>329</v>
+        <v>104</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5548,7 +5560,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,11 +5570,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5574,14 +5586,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,11 +5603,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>29</v>
+        <v>333</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>30</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5607,14 +5619,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,11 +5636,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5640,14 +5652,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5657,11 +5669,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>336</v>
+        <v>29</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>337</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5680,7 +5692,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,11 +5702,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5713,7 +5725,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5723,11 +5735,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5739,14 +5751,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5756,14 +5768,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5772,14 +5784,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5789,11 +5801,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5805,14 +5817,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5822,14 +5834,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5838,14 +5850,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5855,49 +5867,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>346</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>76</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>45</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>124</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>347</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>169</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>45</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>348</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q133" s="12">
+      <c t="s" r="Q135" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>8625.4050000000007</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>345</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>346</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>347</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>8845.4050000000007</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>349</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>350</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>351</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6541,10 +6619,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -599,7 +599,10 @@
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
-    <t>65.0000</t>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
@@ -737,9 +740,6 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -794,9 +794,6 @@
     <t>130.00</t>
   </si>
   <si>
-    <t>130.0000</t>
-  </si>
-  <si>
     <t>SILDEN 100 MG 8F.C. TABS</t>
   </si>
   <si>
@@ -1037,6 +1034,12 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>مزيل عرق فوج FOGG MASTER</t>
   </si>
   <si>
@@ -1058,7 +1061,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:42 PM</t>
+    <t>Monday, 4 August, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3646,7 +3649,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3660,10 +3663,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3672,7 +3675,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3689,11 +3692,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3705,7 +3708,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3722,11 +3725,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3738,7 +3741,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3755,11 +3758,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3804,7 +3807,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3854,11 +3857,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3870,7 +3873,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3887,7 +3890,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3903,7 +3906,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3920,11 +3923,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3936,7 +3939,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3969,7 +3972,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3986,11 +3989,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4019,14 +4022,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4035,7 +4038,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4056,7 +4059,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4068,7 +4071,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4085,11 +4088,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4101,7 +4104,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4134,14 +4137,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4167,7 +4170,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4184,7 +4187,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4200,7 +4203,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4233,7 +4236,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4250,11 +4253,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4266,7 +4269,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4283,7 +4286,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4299,14 +4302,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4448,7 +4451,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4551,7 +4554,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4563,14 +4566,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4596,7 +4599,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4629,7 +4632,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4646,11 +4649,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4662,7 +4665,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4695,7 +4698,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4712,11 +4715,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4728,14 +4731,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4745,11 +4748,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4761,7 +4764,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4778,11 +4781,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4794,7 +4797,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4827,7 +4830,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4860,7 +4863,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4877,11 +4880,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4893,7 +4896,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4910,7 +4913,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4926,7 +4929,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4943,11 +4946,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4959,7 +4962,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4976,11 +4979,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4992,7 +4995,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5042,11 +5045,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5058,14 +5061,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5075,11 +5078,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>54</v>
@@ -5091,7 +5094,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5108,11 +5111,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5124,7 +5127,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5141,7 +5144,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5157,14 +5160,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,11 +5177,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>54</v>
@@ -5190,14 +5193,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,11 +5210,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>97</v>
@@ -5223,7 +5226,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5256,7 +5259,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5273,11 +5276,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5289,7 +5292,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5306,11 +5309,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5322,14 +5325,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5355,14 +5358,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,7 +5375,7 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5388,14 +5391,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5421,7 +5424,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5438,11 +5441,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5454,7 +5457,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5471,14 +5474,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,7 +5490,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5504,14 +5507,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5520,7 +5523,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5553,7 +5556,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5586,7 +5589,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5603,11 +5606,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5619,14 +5622,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5652,14 +5655,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5685,14 +5688,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5718,7 +5721,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5735,11 +5738,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5751,14 +5754,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>242</v>
+        <v>342</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,11 +5771,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5791,7 +5794,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5801,11 +5804,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>333</v>
+        <v>67</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>334</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5824,7 +5827,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5834,14 +5837,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>62</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5857,7 +5860,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5867,14 +5870,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>324</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5890,7 +5893,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5900,11 +5903,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5923,7 +5926,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5933,49 +5936,82 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>348</v>
+        <v>124</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>348</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>169</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>45</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>349</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q135" s="12">
+      <c t="s" r="Q136" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>8845.4050000000007</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>349</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>8934.4050000000007</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
         <v>350</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
         <v>351</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>352</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6629,10 +6665,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -704,6 +704,12 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -749,6 +755,9 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
     <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
   </si>
   <si>
@@ -860,6 +869,15 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>34.1900</t>
+  </si>
+  <si>
     <t>TRENDO 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -959,6 +977,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>بيبي جوي رقم 5</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>380.0000</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -1061,7 +1088,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:43 PM</t>
+    <t>Monday, 4 August, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4111,7 +4138,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4121,14 +4148,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4137,14 +4164,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4154,14 +4181,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4177,7 +4204,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4187,14 +4214,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4210,21 +4237,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4236,31 +4263,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4269,7 +4296,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4286,11 +4313,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4309,7 +4336,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4319,11 +4346,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4342,17 +4369,17 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4381,18 +4408,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4401,14 +4428,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4418,11 +4445,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4434,14 +4461,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4451,14 +4478,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4467,14 +4494,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4484,14 +4511,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4500,14 +4527,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,14 +4544,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4533,31 +4560,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4573,7 +4600,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4583,11 +4610,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4599,7 +4626,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4612,15 +4639,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4639,7 +4666,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4649,11 +4676,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>51</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4665,14 +4692,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4682,14 +4709,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4698,14 +4725,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4715,14 +4742,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4731,14 +4758,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4748,14 +4775,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4764,14 +4791,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4781,14 +4808,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4797,14 +4824,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,14 +4841,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4830,14 +4857,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4847,11 +4874,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4863,7 +4890,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4880,11 +4907,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4896,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,14 +4940,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4929,14 +4956,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,14 +4973,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4962,28 +4989,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4995,7 +5022,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5012,11 +5039,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5028,14 +5055,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5045,11 +5072,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5061,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5078,14 +5105,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5094,14 +5121,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,14 +5138,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5127,14 +5154,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,14 +5171,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5160,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,11 +5204,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>54</v>
@@ -5193,14 +5220,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,14 +5237,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5226,14 +5253,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,14 +5270,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>49</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5259,14 +5286,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,14 +5303,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,31 +5319,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5325,31 +5352,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5358,28 +5385,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5398,7 +5425,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5408,11 +5435,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5424,14 +5451,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,11 +5468,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5457,14 +5484,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5474,14 +5501,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>303</v>
+        <v>131</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>296</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>325</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5497,7 +5524,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5511,10 +5538,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>328</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5523,14 +5550,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5540,11 +5567,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5563,7 +5590,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5573,11 +5600,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5589,7 +5616,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5606,14 +5633,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5622,14 +5649,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5639,14 +5666,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>29</v>
+        <v>336</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>337</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5655,14 +5682,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5672,11 +5699,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5688,14 +5715,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5721,7 +5748,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5738,11 +5765,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5754,14 +5781,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5771,11 +5798,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5787,14 +5814,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5804,11 +5831,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5820,14 +5847,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5837,11 +5864,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>332</v>
+        <v>131</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>333</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5853,14 +5880,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5870,14 +5897,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>62</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5886,14 +5913,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>54</v>
+        <v>351</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5903,11 +5930,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5919,14 +5946,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5936,11 +5963,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5952,14 +5979,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5969,49 +5996,181 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>354</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>196</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>45</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>131</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>355</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>54</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>45</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>331</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>356</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>76</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>45</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>124</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>357</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>169</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>45</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>358</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q136" s="12">
+      <c t="s" r="Q140" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>8934.4050000000007</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>350</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
-        <v>351</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
-        <v>352</v>
-      </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>9469.6949999999997</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>359</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>360</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>361</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6670,10 +6829,30 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -632,6 +632,15 @@
     <t>234.0000</t>
   </si>
   <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>KERELLA LOTION 30 ML</t>
   </si>
   <si>
@@ -698,12 +707,6 @@
     <t>NODY NASAL SPRAY</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -1088,7 +1091,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:48 PM</t>
+    <t>Monday, 4 August, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3818,11 +3821,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3834,7 +3837,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3851,11 +3854,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3867,14 +3870,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3884,14 +3887,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3900,14 +3903,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3921,7 +3924,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3933,31 +3936,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3973,21 +3976,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3999,14 +4002,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4016,14 +4019,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4039,24 +4042,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4065,31 +4068,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4098,14 +4101,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4115,14 +4118,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4138,7 +4141,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4148,14 +4151,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4164,14 +4167,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4181,14 +4184,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4204,7 +4207,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4214,14 +4217,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4230,14 +4233,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4247,14 +4250,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4263,28 +4266,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4303,24 +4306,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4329,7 +4332,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4346,11 +4349,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4362,14 +4365,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4379,11 +4382,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4395,28 +4398,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4428,28 +4431,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4468,7 +4471,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4478,14 +4481,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4494,14 +4497,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4511,14 +4514,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4527,14 +4530,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4544,14 +4547,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4560,14 +4563,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4577,14 +4580,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4593,14 +4596,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4610,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4633,21 +4636,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4659,28 +4662,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4692,14 +4695,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4709,11 +4712,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4742,11 +4745,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4758,14 +4761,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4775,14 +4778,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4798,7 +4801,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4808,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4824,14 +4827,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4841,14 +4844,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4857,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4874,11 +4877,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4890,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4907,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4940,14 +4943,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4973,14 +4976,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4989,31 +4992,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5022,31 +5025,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5072,14 +5075,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5088,7 +5091,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5105,11 +5108,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5121,7 +5124,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5138,14 +5141,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>86</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5161,7 +5164,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5171,14 +5174,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5187,14 +5190,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5204,14 +5207,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5220,14 +5223,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5237,14 +5240,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5253,14 +5256,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5270,14 +5273,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>308</v>
+        <v>97</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5303,14 +5306,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5319,14 +5322,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5336,14 +5339,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5352,14 +5355,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5369,14 +5372,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>49</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5392,7 +5395,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5402,11 +5405,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5418,28 +5421,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5451,14 +5454,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5468,11 +5471,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5484,14 +5487,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5501,14 +5504,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>62</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5534,14 +5537,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>131</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5550,14 +5553,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5567,11 +5570,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5583,14 +5586,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>54</v>
+        <v>330</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5600,11 +5603,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>188</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5616,14 +5619,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5633,14 +5636,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5649,7 +5652,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5666,14 +5669,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5682,14 +5685,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5699,14 +5702,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>104</v>
+        <v>337</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5732,11 +5735,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5755,7 +5758,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5765,11 +5768,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5781,14 +5784,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5798,11 +5801,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>29</v>
+        <v>342</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>30</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5814,14 +5817,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5854,7 +5857,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5864,11 +5867,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5887,7 +5890,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5897,11 +5900,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>349</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5913,14 +5916,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5930,11 +5933,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5946,14 +5949,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>196</v>
+        <v>352</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5963,11 +5966,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5986,7 +5989,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5996,11 +5999,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6019,7 +6022,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6029,14 +6032,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>62</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6052,7 +6055,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6062,14 +6065,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>332</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6085,7 +6088,7 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6095,11 +6098,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>125</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6118,7 +6121,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6128,49 +6131,82 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>358</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>169</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>45</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>359</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q140" s="12">
+      <c t="s" r="Q141" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>9469.6949999999997</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>359</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>9579.6949999999997</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
         <v>360</v>
       </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
         <v>361</v>
       </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>362</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6849,10 +6885,15 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -788,6 +788,15 @@
     <t>29.7000</t>
   </si>
   <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -1091,7 +1100,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:49 PM</t>
+    <t>Monday, 4 August, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3349,7 +3358,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3547,7 +3556,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -4603,7 +4612,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4636,7 +4645,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4662,28 +4671,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>124</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4695,28 +4704,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4728,14 +4737,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4745,11 +4754,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4761,7 +4770,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4778,11 +4787,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>104</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4801,7 +4810,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,14 +4853,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4867,7 +4876,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4877,14 +4886,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4893,14 +4902,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4933,7 +4942,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,14 +4952,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4959,7 +4968,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4992,7 +5001,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5009,14 +5018,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5032,13 +5041,13 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -5049,7 +5058,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5065,24 +5074,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5091,7 +5100,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5108,14 +5117,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5174,14 +5183,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5190,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,14 +5216,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>86</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5230,7 +5239,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5240,14 +5249,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5263,7 +5272,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,14 +5315,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5343,10 +5352,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5355,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,14 +5381,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,14 +5414,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5421,14 +5430,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5438,11 +5447,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5461,13 +5470,13 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5494,7 +5503,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5527,7 +5536,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5537,14 +5546,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5553,7 +5562,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5570,14 +5579,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5586,14 +5595,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>330</v>
+        <v>196</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5603,11 +5612,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>188</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5619,14 +5628,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>54</v>
+        <v>333</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5636,11 +5645,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>188</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5659,7 +5668,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5669,14 +5678,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>335</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5685,7 +5694,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5702,11 +5711,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>87</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>338</v>
@@ -5725,7 +5734,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,14 +5744,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>104</v>
+        <v>340</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5751,7 +5760,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5768,11 +5777,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5784,14 +5793,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5801,11 +5810,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>343</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5824,7 +5833,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5834,11 +5843,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5850,14 +5859,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5883,14 +5892,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5900,11 +5909,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5916,14 +5925,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5933,11 +5942,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5956,7 +5965,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5966,11 +5975,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5982,14 +5991,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>196</v>
+        <v>355</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5999,11 +6008,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6015,14 +6024,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6032,11 +6041,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>342</v>
+        <v>67</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>343</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6048,14 +6057,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6065,14 +6074,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>62</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6081,14 +6090,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6098,14 +6107,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>332</v>
+        <v>131</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>333</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6114,14 +6123,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6131,11 +6140,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>125</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6147,14 +6156,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6164,49 +6173,82 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>359</v>
+        <v>124</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>361</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>169</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>45</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>362</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
         <v>84</v>
       </c>
-      <c t="s" r="Q141" s="12">
+      <c t="s" r="Q142" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>9579.6949999999997</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>360</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
-        <v>361</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
-        <v>362</v>
-      </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>9641.0750000000007</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>363</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
+        <v>364</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>365</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6890,10 +6932,15 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -1100,7 +1100,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 9:52 PM</t>
+    <t>Monday, 4 August, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -512,7 +512,10 @@
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
-    <t>80.0000</t>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>FUTAPAN 40 MG VIAL I.V.</t>
@@ -569,7 +572,7 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>248.0000</t>
+    <t>372.0000</t>
   </si>
   <si>
     <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
@@ -746,6 +749,12 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>PEPON PLUS 20 CAPS</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -809,6 +818,18 @@
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>21.1500</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>RONY OCEAN SYRUP</t>
   </si>
   <si>
@@ -959,9 +980,6 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -1043,15 +1061,18 @@
     <t>صابون CAMAY</t>
   </si>
   <si>
+    <t>قصافات اطفال دبدوب</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>كريم فريند لافلي الكبير</t>
   </si>
   <si>
@@ -1100,7 +1121,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:07 PM</t>
+    <t>Monday, 4 August, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3358,7 +3379,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3375,7 +3396,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>76</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3384,14 +3405,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3401,11 +3422,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3417,7 +3438,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3434,11 +3455,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3450,7 +3471,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3467,11 +3488,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>76</v>
@@ -3483,7 +3504,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3500,11 +3521,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3516,7 +3537,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3533,11 +3554,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3549,14 +3570,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3566,14 +3587,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>54</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3582,7 +3603,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3599,11 +3620,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3615,7 +3636,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3632,11 +3653,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3648,7 +3669,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3669,7 +3690,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3681,14 +3702,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3702,7 +3723,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>54</v>
@@ -3714,7 +3735,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3731,11 +3752,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3747,7 +3768,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3764,11 +3785,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3780,7 +3801,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3797,11 +3818,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3813,7 +3834,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3830,11 +3851,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3846,7 +3867,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3879,7 +3900,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3912,14 +3933,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3929,11 +3950,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3945,7 +3966,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3962,7 +3983,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3978,7 +3999,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3995,11 +4016,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4011,7 +4032,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4044,7 +4065,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4061,11 +4082,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4077,14 +4098,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4094,14 +4115,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4110,7 +4131,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4131,7 +4152,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4143,7 +4164,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4160,11 +4181,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4176,7 +4197,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4193,11 +4214,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4209,7 +4230,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4242,14 +4263,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4275,7 +4296,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4292,7 +4313,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4308,7 +4329,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4329,7 +4350,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4341,7 +4362,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4358,11 +4379,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4374,7 +4395,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4391,7 +4412,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4407,14 +4428,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4424,14 +4445,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4440,28 +4461,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4473,28 +4494,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4506,14 +4527,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4523,14 +4544,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4546,7 +4567,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4563,7 +4584,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4579,7 +4600,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4589,14 +4610,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4612,7 +4633,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4622,14 +4643,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4645,7 +4666,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4678,7 +4699,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4688,14 +4709,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4704,28 +4725,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4737,14 +4758,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4754,14 +4775,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4770,7 +4791,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4783,15 +4804,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4803,14 +4824,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4820,11 +4841,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4836,14 +4857,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4853,14 +4874,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4869,14 +4890,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4886,14 +4907,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4902,14 +4923,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4919,14 +4940,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4942,7 +4963,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4959,7 +4980,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4975,7 +4996,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4985,14 +5006,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5001,14 +5022,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5018,11 +5039,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5034,7 +5055,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5051,11 +5072,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5067,28 +5088,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5100,14 +5121,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5117,11 +5138,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5133,28 +5154,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5166,7 +5187,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5183,14 +5204,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5199,7 +5220,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5216,14 +5237,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>86</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5232,14 +5253,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5249,11 +5270,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5265,14 +5286,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5282,14 +5303,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5298,7 +5319,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5315,11 +5336,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5331,14 +5352,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5348,14 +5369,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5364,14 +5385,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5381,14 +5402,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5397,14 +5418,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>316</v>
+        <v>97</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5418,10 +5439,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5430,14 +5451,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>41</v>
+        <v>319</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5447,14 +5468,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>49</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5463,14 +5484,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5480,14 +5501,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5496,28 +5517,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5536,13 +5557,13 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5569,7 +5590,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5579,14 +5600,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>62</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5595,14 +5616,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5612,11 +5633,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>162</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5628,14 +5649,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5645,14 +5666,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5661,14 +5682,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5678,11 +5699,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>336</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5694,14 +5715,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5711,14 +5732,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>338</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5727,14 +5748,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5744,14 +5765,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>87</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>341</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5760,14 +5781,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,14 +5798,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5793,14 +5814,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5810,14 +5831,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5826,14 +5847,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,11 +5864,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>345</v>
+        <v>104</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5859,14 +5880,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5876,11 +5897,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5892,14 +5913,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5909,11 +5930,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5925,14 +5946,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5942,11 +5963,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5958,14 +5979,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5975,11 +5996,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>352</v>
+        <v>29</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>353</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5991,14 +6012,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6008,11 +6029,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6024,14 +6045,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6041,11 +6062,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6057,14 +6078,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6074,11 +6095,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6090,14 +6111,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>196</v>
+        <v>362</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6107,14 +6128,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6123,14 +6144,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6140,11 +6161,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6156,7 +6177,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6173,11 +6194,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>124</v>
+        <v>351</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6189,14 +6210,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6206,49 +6227,148 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>54</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
-      <c r="P143" s="13">
-        <v>9641.0750000000007</v>
-      </c>
-      <c r="Q143" s="13"/>
-    </row>
-    <row r="144" ht="16.5" customHeight="1">
-      <c t="s" r="A144" s="14">
-        <v>363</v>
-      </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c t="s" r="G144" s="15">
-        <v>364</v>
-      </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="16"/>
-      <c t="s" r="K144" s="17">
-        <v>365</v>
-      </c>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>366</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>54</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>45</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>341</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>367</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>76</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>45</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>124</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>368</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>170</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>45</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>369</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="P146" s="13">
+        <v>10011.225</v>
+      </c>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="14">
+        <v>370</v>
+      </c>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c t="s" r="G147" s="15">
+        <v>371</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c t="s" r="K147" s="17">
+        <v>372</v>
+      </c>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="692">
+  <mergeCells count="707">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6937,10 +7057,25 @@
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="L142:M142"/>
     <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="K144:Q144"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="K147:Q147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
@@ -923,6 +935,15 @@
     <t>550.0000</t>
   </si>
   <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -977,6 +998,12 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -1121,7 +1148,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:16 PM</t>
+    <t>Monday, 4 August, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1944,7 +1971,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1977,7 +2004,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2003,14 +2030,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2026,13 +2053,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -2059,21 +2086,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -2085,28 +2112,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2118,20 +2145,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2158,24 +2185,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2184,31 +2211,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2217,14 +2244,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2234,11 +2261,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2250,14 +2277,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2267,14 +2294,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2283,14 +2310,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2300,14 +2327,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2316,14 +2343,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2333,14 +2360,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2349,14 +2376,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2399,11 +2426,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2415,14 +2442,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2432,14 +2459,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2455,7 +2482,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2465,11 +2492,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2481,14 +2508,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2498,14 +2525,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2514,14 +2541,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2531,14 +2558,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2547,14 +2574,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2564,14 +2591,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2604,7 +2631,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2620,7 +2647,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2630,14 +2657,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2646,7 +2673,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2663,14 +2690,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2679,14 +2706,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2696,14 +2723,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2712,14 +2739,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2729,11 +2756,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2745,7 +2772,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2762,11 +2789,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2778,14 +2805,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2795,11 +2822,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2811,31 +2838,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2844,28 +2871,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2877,14 +2904,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2894,11 +2921,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2910,14 +2937,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2934,7 +2961,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2950,7 +2977,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2960,14 +2987,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2976,14 +3003,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2993,14 +3020,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3009,14 +3036,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3026,14 +3053,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3042,14 +3069,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3059,14 +3086,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3075,14 +3102,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3092,14 +3119,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>142</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3108,14 +3135,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3125,14 +3152,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3141,14 +3168,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3158,11 +3185,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3174,14 +3201,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3191,14 +3218,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3207,14 +3234,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3231,7 +3258,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3257,14 +3284,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3273,14 +3300,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3290,14 +3317,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3306,14 +3333,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3323,14 +3350,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3339,14 +3366,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3356,14 +3383,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3372,14 +3399,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3389,14 +3416,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3405,14 +3432,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3422,14 +3449,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>172</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3445,7 +3472,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3455,14 +3482,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3471,14 +3498,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3488,14 +3515,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3504,14 +3531,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3521,14 +3548,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3537,14 +3564,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3554,14 +3581,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3570,14 +3597,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3587,14 +3614,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3603,14 +3630,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3620,14 +3647,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3636,28 +3663,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3669,28 +3696,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3702,31 +3729,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3735,31 +3762,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3768,14 +3795,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3785,14 +3812,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3801,28 +3828,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3834,28 +3861,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3867,7 +3894,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3884,11 +3911,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3900,7 +3927,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3933,14 +3960,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3950,14 +3977,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3973,7 +4000,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3983,11 +4010,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3999,31 +4026,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4032,28 +4059,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4065,14 +4092,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4082,14 +4109,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4098,20 +4125,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4122,7 +4149,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>227</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4138,24 +4165,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q79" s="12">
         <v>231</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4164,14 +4191,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4181,14 +4208,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4197,14 +4224,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4214,14 +4241,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4230,14 +4257,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4247,14 +4274,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4263,14 +4290,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4280,14 +4307,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4296,14 +4323,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4313,14 +4340,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4329,28 +4356,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4362,31 +4389,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4395,14 +4422,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4412,11 +4439,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4428,14 +4455,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4445,14 +4472,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4461,14 +4488,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4478,14 +4505,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4494,28 +4521,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4527,28 +4554,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4560,14 +4587,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4577,14 +4604,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4593,14 +4620,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4610,14 +4637,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4626,14 +4653,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4643,14 +4670,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4659,14 +4686,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4676,14 +4703,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4692,14 +4719,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4709,11 +4736,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4725,14 +4752,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4742,14 +4769,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4758,14 +4785,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4775,14 +4802,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4798,13 +4825,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4812,10 +4839,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4824,28 +4851,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4857,14 +4884,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4874,11 +4901,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4890,14 +4917,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4907,11 +4934,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4923,14 +4950,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4940,14 +4967,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4956,14 +4983,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4973,14 +5000,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4989,14 +5016,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5013,7 +5040,7 @@
         <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5029,7 +5056,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5039,11 +5066,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5055,14 +5082,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5072,14 +5099,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5088,7 +5115,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5105,14 +5132,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5121,7 +5148,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5138,14 +5165,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5154,31 +5181,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5187,31 +5214,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5220,14 +5247,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5237,14 +5264,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5253,14 +5280,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5270,11 +5297,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5286,14 +5313,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5303,14 +5330,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5319,14 +5346,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5336,11 +5363,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5352,14 +5379,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5369,14 +5396,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5385,7 +5412,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5402,11 +5429,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5418,14 +5445,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5435,14 +5462,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5451,14 +5478,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5468,14 +5495,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5484,14 +5511,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5501,14 +5528,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5524,7 +5551,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5534,14 +5561,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>37</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5550,14 +5577,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5567,11 +5594,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5583,31 +5610,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5616,28 +5643,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>334</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5656,24 +5683,24 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5682,28 +5709,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5715,28 +5742,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>189</v>
+        <v>342</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>190</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5748,31 +5775,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>341</v>
+        <v>135</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5781,31 +5808,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>344</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5814,31 +5841,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>346</v>
+        <v>193</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>347</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5847,28 +5874,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>104</v>
+        <v>350</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>105</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5880,31 +5907,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5913,31 +5940,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>352</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>356</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5946,28 +5973,28 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>352</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5979,28 +6006,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>355</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6012,28 +6039,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>30</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6045,28 +6072,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>131</v>
+        <v>360</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>132</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6078,28 +6105,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>359</v>
+        <v>33</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>360</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6111,28 +6138,28 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6144,28 +6171,28 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>197</v>
+        <v>356</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6177,28 +6204,28 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6210,31 +6237,31 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6243,28 +6270,28 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c t="s" r="L143" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6276,28 +6303,28 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
       <c r="K144" s="9"/>
       <c t="s" r="L144" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6309,66 +6336,165 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
       <c r="K145" s="9"/>
       <c t="s" r="L145" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>369</v>
+        <v>135</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
-      <c r="P146" s="13">
-        <v>10011.225</v>
-      </c>
-      <c r="Q146" s="13"/>
-    </row>
-    <row r="147" ht="16.5" customHeight="1">
-      <c t="s" r="A147" s="14">
-        <v>370</v>
-      </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c t="s" r="G147" s="15">
-        <v>371</v>
-      </c>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="16"/>
-      <c t="s" r="K147" s="17">
-        <v>372</v>
-      </c>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>375</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>58</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>49</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>350</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>351</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>376</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
+        <v>80</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>49</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>128</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>377</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>174</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>49</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>378</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="P149" s="13">
+        <v>10261.225</v>
+      </c>
+      <c r="Q149" s="13"/>
+    </row>
+    <row r="150" ht="16.5" customHeight="1">
+      <c t="s" r="A150" s="14">
+        <v>379</v>
+      </c>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c t="s" r="G150" s="15">
+        <v>380</v>
+      </c>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="16"/>
+      <c t="s" r="K150" s="17">
+        <v>381</v>
+      </c>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
+      <c r="P150" s="17"/>
+      <c r="Q150" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="707">
+  <mergeCells count="722">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7072,10 +7198,25 @@
     <mergeCell ref="H145:K145"/>
     <mergeCell ref="L145:M145"/>
     <mergeCell ref="N145:O145"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="K147:Q147"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="P149:Q149"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="K150:Q150"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -935,6 +935,15 @@
     <t>550.0000</t>
   </si>
   <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>TRYPSALIN PLUS 30 TABS</t>
   </si>
   <si>
@@ -1148,7 +1157,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:17 PM</t>
+    <t>Monday, 4 August, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5320,7 +5329,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5353,7 +5362,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5396,14 +5405,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5412,14 +5421,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5429,14 +5438,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>90</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>317</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5452,7 +5461,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5462,14 +5471,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5485,7 +5494,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5495,14 +5504,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5511,14 +5520,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5528,14 +5537,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5544,14 +5553,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>326</v>
+        <v>101</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5565,10 +5574,10 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5577,14 +5586,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5594,14 +5603,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5610,14 +5619,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5627,14 +5636,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>37</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
         <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5650,7 +5659,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5660,14 +5669,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5676,14 +5685,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5693,11 +5702,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>337</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5716,13 +5725,13 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
@@ -5749,7 +5758,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5782,7 +5791,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5792,14 +5801,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>135</v>
+        <v>345</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>66</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5808,7 +5817,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5825,14 +5834,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5841,14 +5850,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>348</v>
+        <v>201</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5858,11 +5867,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>193</v>
+        <v>349</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5874,14 +5883,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>58</v>
+        <v>351</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5891,11 +5900,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>351</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5914,7 +5923,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5924,14 +5933,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>353</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5940,7 +5949,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5957,11 +5966,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>91</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>356</v>
@@ -5980,7 +5989,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5990,14 +5999,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6006,7 +6015,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -6023,11 +6032,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6039,14 +6048,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6056,11 +6065,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>360</v>
+        <v>135</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>361</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6079,7 +6088,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6089,11 +6098,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6105,14 +6114,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6122,11 +6131,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>33</v>
+        <v>363</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>34</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6138,14 +6147,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6171,14 +6180,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6188,11 +6197,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6204,14 +6213,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6221,11 +6230,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>368</v>
+        <v>135</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>369</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6244,7 +6253,7 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6254,11 +6263,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>87</v>
+        <v>371</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6270,14 +6279,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6287,11 +6296,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6303,14 +6312,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6320,11 +6329,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>360</v>
+        <v>71</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6336,14 +6345,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6353,14 +6362,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>66</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6369,14 +6378,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6386,14 +6395,14 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>351</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q146" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -6402,14 +6411,14 @@
       </c>
       <c r="B147" s="7"/>
       <c t="s" r="C147" s="8">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c t="s" r="H147" s="9">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
@@ -6419,11 +6428,11 @@
       </c>
       <c r="M147" s="10"/>
       <c t="s" r="N147" s="8">
-        <v>128</v>
+        <v>353</v>
       </c>
       <c r="O147" s="8"/>
       <c t="s" r="P147" s="11">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q147" s="12">
         <v>16</v>
@@ -6435,14 +6444,14 @@
       </c>
       <c r="B148" s="7"/>
       <c t="s" r="C148" s="8">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c t="s" r="H148" s="9">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
@@ -6452,49 +6461,82 @@
       </c>
       <c r="M148" s="10"/>
       <c t="s" r="N148" s="8">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="O148" s="8"/>
       <c t="s" r="P148" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>380</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>174</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>49</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>381</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
         <v>88</v>
       </c>
-      <c t="s" r="Q148" s="12">
+      <c t="s" r="Q149" s="12">
         <v>58</v>
       </c>
     </row>
-    <row r="149" ht="25.5" customHeight="1">
-      <c r="P149" s="13">
-        <v>10261.225</v>
-      </c>
-      <c r="Q149" s="13"/>
-    </row>
-    <row r="150" ht="16.5" customHeight="1">
-      <c t="s" r="A150" s="14">
-        <v>379</v>
-      </c>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c t="s" r="G150" s="15">
-        <v>380</v>
-      </c>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="16"/>
-      <c t="s" r="K150" s="17">
-        <v>381</v>
-      </c>
-      <c r="L150" s="17"/>
-      <c r="M150" s="17"/>
-      <c r="N150" s="17"/>
-      <c r="O150" s="17"/>
-      <c r="P150" s="17"/>
-      <c r="Q150" s="17"/>
+    <row r="150" ht="24.75" customHeight="1">
+      <c r="P150" s="13">
+        <v>10304.225</v>
+      </c>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" ht="16.5" customHeight="1">
+      <c t="s" r="A151" s="14">
+        <v>382</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c t="s" r="G151" s="15">
+        <v>383</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c t="s" r="K151" s="17">
+        <v>384</v>
+      </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="722">
+  <mergeCells count="727">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7213,10 +7255,15 @@
     <mergeCell ref="H148:K148"/>
     <mergeCell ref="L148:M148"/>
     <mergeCell ref="N148:O148"/>
-    <mergeCell ref="P149:Q149"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="K150:Q150"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="P150:Q150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="K151:Q151"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -941,7 +941,7 @@
     <t>43.00</t>
   </si>
   <si>
-    <t>43.0000</t>
+    <t>21.5000</t>
   </si>
   <si>
     <t>TRYPSALIN PLUS 30 TABS</t>
@@ -1157,7 +1157,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:18 PM</t>
+    <t>Monday, 4 August, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5329,7 +5329,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5346,7 +5346,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -6506,7 +6506,7 @@
     </row>
     <row r="150" ht="24.75" customHeight="1">
       <c r="P150" s="13">
-        <v>10304.225</v>
+        <v>10282.725</v>
       </c>
       <c r="Q150" s="13"/>
     </row>

--- a/DaySale_2025-08-04_00-00.xlsx
+++ b/DaySale_2025-08-04_00-00.xlsx
@@ -401,6 +401,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -737,6 +743,12 @@
     <t>2:6</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -770,9 +782,6 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PLEX BEAUTY HAIR CREAM</t>
   </si>
   <si>
@@ -995,6 +1004,9 @@
     <t>51.00</t>
   </si>
   <si>
+    <t>84.1500</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1088,39 +1100,39 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>شامبو جونسون 200مللى</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>قصافات اطفال دبدوب</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فريند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>شامبو جونسون 200مللى</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t>قصافات اطفال دبدوب</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فريند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -1157,7 +1169,7 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>Monday, 4 August, 2025 10:32 PM</t>
+    <t>Monday, 4 August, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2986,7 +2998,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3029,14 +3041,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3062,14 +3074,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3078,14 +3090,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3095,14 +3107,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3128,14 +3140,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3144,14 +3156,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3161,14 +3173,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3194,14 +3206,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3227,11 +3239,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3260,14 +3272,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3276,14 +3288,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3293,14 +3305,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3309,14 +3321,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3326,14 +3338,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3342,14 +3354,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3359,14 +3371,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3425,14 +3437,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3441,14 +3453,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3458,14 +3470,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3474,14 +3486,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3507,14 +3519,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3524,14 +3536,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3639,7 +3651,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3705,28 +3717,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3738,7 +3750,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3755,7 +3767,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3778,7 +3790,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3804,31 +3816,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3854,14 +3866,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3870,28 +3882,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3903,28 +3915,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3936,7 +3948,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3953,11 +3965,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3969,7 +3981,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3986,11 +3998,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4052,11 +4064,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -4075,13 +4087,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -4089,10 +4101,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4101,28 +4113,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4134,14 +4146,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4167,31 +4179,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>231</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4200,31 +4212,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4240,7 +4252,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4250,14 +4262,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4283,14 +4295,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4306,7 +4318,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4316,14 +4328,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4349,14 +4361,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4372,7 +4384,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4382,14 +4394,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4405,24 +4417,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4431,14 +4443,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4448,14 +4460,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4471,24 +4483,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4497,7 +4509,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4514,14 +4526,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4537,7 +4549,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4547,11 +4559,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4576,18 +4588,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4603,7 +4615,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4613,11 +4625,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4642,18 +4654,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>71</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4662,14 +4674,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4679,11 +4691,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4728,7 +4740,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4778,14 +4790,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4811,14 +4823,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4827,14 +4839,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4844,14 +4856,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>276</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4860,28 +4872,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4893,14 +4905,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4910,14 +4922,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>56</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4926,7 +4938,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4939,15 +4951,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4966,7 +4978,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4976,11 +4988,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>55</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4992,14 +5004,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5009,14 +5021,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5025,14 +5037,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5042,14 +5054,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5058,14 +5070,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>133</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5075,14 +5087,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5091,14 +5103,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5108,14 +5120,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5124,14 +5136,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5141,14 +5153,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5157,14 +5169,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5174,11 +5186,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>47</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5190,7 +5202,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5207,11 +5219,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>96</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5223,28 +5235,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5256,14 +5268,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5273,11 +5285,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5289,28 +5301,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5322,14 +5334,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5339,11 +5351,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5355,14 +5367,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5372,11 +5384,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5388,14 +5400,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5405,14 +5417,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5421,14 +5433,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5438,14 +5450,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5454,14 +5466,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5471,11 +5483,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5487,14 +5499,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5504,14 +5516,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5520,7 +5532,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5537,11 +5549,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5553,14 +5565,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5570,14 +5582,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5586,14 +5598,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5603,14 +5615,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5619,14 +5631,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5636,14 +5648,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5652,14 +5664,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5669,14 +5681,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5685,7 +5697,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5702,11 +5714,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5725,7 +5737,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5742,7 +5754,7 @@
         <v>340</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5758,21 +5770,21 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>343</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5784,28 +5796,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5817,14 +5829,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5834,14 +5846,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>135</v>
+        <v>346</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>66</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5857,7 +5869,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5871,7 +5883,7 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>166</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5883,14 +5895,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>351</v>
+        <v>203</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5900,14 +5912,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5923,7 +5935,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5937,7 +5949,7 @@
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>354</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5949,14 +5961,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5966,14 +5978,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>356</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5982,14 +5994,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5999,14 +6011,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>91</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>359</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6015,14 +6027,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6032,14 +6044,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>109</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6055,7 +6067,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6065,14 +6077,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>135</v>
+        <v>362</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6081,14 +6093,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6098,11 +6110,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>363</v>
+        <v>108</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>364</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6114,14 +6126,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6131,11 +6143,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>16</v>
@@ -6147,14 +6159,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>367</v>
+        <v>203</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6164,11 +6176,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>33</v>
+        <v>366</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>16</v>
@@ -6187,7 +6199,7 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6197,11 +6209,11 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>33</v>
+        <v>366</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q140" s="12">
         <v>16</v>
@@ -6220,7 +6232,7 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6230,11 +6242,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>16</v>
@@ -6246,14 +6258,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6263,11 +6275,11 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>371</v>
+        <v>33</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>372</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>16</v>
@@ -6279,14 +6291,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6296,11 +6308,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>16</v>
@@ -6312,14 +6324,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6329,11 +6341,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>71</v>
+        <v>375</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>16</v>
@@ -6345,14 +6357,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6362,11 +6374,11 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>363</v>
+        <v>87</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>364</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q145" s="12">
         <v>16</v>
@@ -6378,14 +6390,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6395,14 +6407,14 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q146" s="12">
-        <v>58</v>
+        <v>16</